--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BF5C9F-3ED0-4BA1-A3AC-88B82139FD7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7939903B-5005-475F-83FA-FC0C1A22B5F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="306">
   <si>
     <t>header1</t>
   </si>
@@ -346,9 +346,6 @@
   </si>
   <si>
     <t>&lt;h3&gt;問い合わせ&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;F3S講習会&lt;/h3&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">次に、HDD/SSDの容量を調べましょう。HDD (Hard Disk Drive)や SSD (Solid State Drive) は、メインメモリほど読み書きが速くないですが、大容量でPCの電源を切っても内容が消えません。
@@ -498,15 +495,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;/dl&gt;情報メディア教育研究センターでは、皆さんの必携PCをより活用してもらえるよう、F3S (First Three Steps) 講習会を開催しています。 
-学生生活を送る上で有用なパソコンの使い方について、一つでも多く身につけてもらえるようさまざまな内容を準備していますので、 興味のあるものが見つかったら、ぜひ参加してください。 
-&lt;ul&gt;&lt;li&gt;&lt;a href="https://f3s.riise.hiroshima-u.ac.jp"&gt;https://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
- &lt;/li&gt;
-&lt;/ul&gt;
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">歯車のアイコン「設定」をクリックして、出てくるメニューの中から「時刻と言語」をクリックしてください。
   </t>
     <rPh sb="19" eb="20">
@@ -1401,105 +1389,6 @@
   </si>
   <si>
     <t>大学のオンラインサービスへのログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>必携PCの設定・点検についてわからないことや困ったことがあったら、下記窓口に相談してください。
-&lt;dl&gt;&lt;dt&gt;対面窓口&lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;初期講習会会場（日時場所は下記Webページ内）&lt;/dd&gt;
-&lt;dd&gt;&lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;&lt;/dd&gt;
-&lt;dd&gt;（4/4 12:30～15:30, 4/5 9:00～17:00）メディアセンター本館特設会場&lt;/dd&gt;
-&lt;dd&gt;（平日 8:45～16:45）メディアセンター本館、東分室（東図書館内）、サービスデスク（西図書館内、中央図書館内）、霞分室（基礎講義棟1F）&lt;/dd&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;アクセスマップ&lt;/a&gt;
-&lt;dd&gt;（4/4～5 10:00～19:00、平日 10:00～17:00）広島大学生協新入生サポートセンター&lt;/dd&gt;
-&lt;/dd&gt;&lt;dt&gt;Web質問窓口: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
-&lt;/dd&gt;&lt;dt&gt;メール質問窓口: &lt;/dt&gt;
-&lt;dt&gt; &lt;/dt&gt;
-&lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;&lt;/dd&gt;</t>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>マドグチ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="83" eb="86">
-      <t>コウシュウカイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>カイジョウ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="270" eb="272">
-      <t>トクセツ</t>
-    </rPh>
-    <rPh sb="272" eb="274">
-      <t>カイジョウ</t>
-    </rPh>
-    <rPh sb="285" eb="287">
-      <t>ヘイジツ</t>
-    </rPh>
-    <rPh sb="310" eb="311">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="311" eb="313">
-      <t>ブンシツ</t>
-    </rPh>
-    <rPh sb="314" eb="315">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="315" eb="318">
-      <t>トショカン</t>
-    </rPh>
-    <rPh sb="318" eb="319">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="333" eb="334">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="335" eb="337">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="337" eb="340">
-      <t>トショカン</t>
-    </rPh>
-    <rPh sb="340" eb="341">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="470" eb="472">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="472" eb="474">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="474" eb="476">
-      <t>セイキョウ</t>
-    </rPh>
-    <rPh sb="476" eb="479">
-      <t>シンニュウセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4054,6 +3943,52 @@
     <rPh sb="36" eb="37">
       <t>オコナ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必携PCの設定・点検についてわからないことや困ったことがあったら、下記窓口に相談してください。
+&lt;dl&gt;
+&lt;dt&gt;対面窓口&lt;/dt&gt;
+&lt;dd&gt;
+  &lt;br&gt;
+  初期講習会会場（日時場所は下記Webページ内）&lt;br&gt;
+  &lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;
+    https://info.pre-entrance.hiroshima-u.ac.jp/
+  &lt;/a&gt;
+  &lt;br&gt;
+  （4/4 12:30～15:30, 4/5 9:00～17:00）メディアセンター本館特設会場&lt;br&gt;
+  （平日 8:45～16:45）メディアセンター本館、
+  東分室（東図書館内）、
+  サービスデスク（西図書館内、中央図書館内）、
+  霞分室（基礎講義棟1F）
+  &lt;br&gt;
+  &lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;
+    アクセスマップ
+  &lt;/a&gt;
+  &lt;br&gt;
+  （4/4～5 10:00～19:00、平日 10:00～17:00）広島大学生協新入生サポートセンター
+  &lt;br&gt;
+&lt;/dd&gt;
+&lt;dt&gt;Web質問窓口: &lt;/dt&gt;
+&lt;dd&gt;
+  &lt;br&gt;
+  &lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;
+  https://www.media.hiroshima-u.ac.jp/helpdesk
+  &lt;/a&gt;
+&lt;/dd&gt;
+&lt;dt&gt;メール質問窓口: &lt;/dt&gt;
+&lt;dd&gt;
+  &lt;br&gt;
+  &lt;a href=""mailto:st-pc@ml.hiroshima-u.ac.jp""&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;
+&lt;/dd&gt;
+&lt;dt&gt;講習会(予定): &lt;/dt&gt;
+&lt;dd&gt;
+  &lt;br&gt;
+  情報メディア教育研究センターでは、皆さんの必携PCをより活用してもらえるよう、F3S (First Three Steps) 講習会を予定しています。&lt;br&gt;
+  新型肺炎の情勢のため、どのような形式とするか検討中ですが、学生生活を送る上で有用なパソコンの使い方について、一つでも多く身につけてもらえるようさまざまな内容を準備していますので、 興味のあるものが見つかったら、ぜひ参加してください。&lt;br&gt;  
+  &lt;a href="https://f3s.riise.hiroshima-u.ac.jp"&gt;https://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
+&lt;/dd&gt;
+&lt;/dl&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4491,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4507,7 +4442,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4515,7 +4450,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4529,7 +4464,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4549,8 +4484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4563,10 +4498,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4590,7 +4525,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4612,22 +4547,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="211.2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -4647,7 +4574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D1BFF-FF5C-4A7E-8C9C-E750AF0FFFAF}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -4664,7 +4591,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4672,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4688,7 +4615,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4696,7 +4623,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4712,15 +4639,15 @@
     </row>
     <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4728,13 +4655,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4742,37 +4669,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4780,23 +4707,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4828,7 +4755,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -4852,7 +4779,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -4860,7 +4787,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -4880,7 +4807,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4888,13 +4815,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4902,21 +4829,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4924,13 +4851,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4938,29 +4865,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4968,13 +4895,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -4982,13 +4909,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -4996,21 +4923,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5018,13 +4945,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5032,21 +4959,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -5054,13 +4981,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -5068,24 +4995,24 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5093,13 +5020,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s" ph="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5130,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5154,7 +5081,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5162,7 +5089,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5176,7 +5103,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -5190,7 +5117,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -5204,7 +5131,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -5218,7 +5145,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5232,7 +5159,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5246,7 +5173,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -5260,7 +5187,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5274,7 +5201,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -5288,7 +5215,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5325,7 +5252,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5333,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5349,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5357,7 +5284,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5410,7 +5337,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5418,13 +5345,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5451,13 +5378,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5465,13 +5392,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -5479,7 +5406,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5493,7 +5420,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -5507,13 +5434,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5521,13 +5448,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5558,7 +5485,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5566,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5582,7 +5509,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5590,7 +5517,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5606,44 +5533,44 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" t="s">
         <v>153</v>
-      </c>
-      <c r="D11" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5651,13 +5578,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5665,7 +5592,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5702,7 +5629,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5710,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5726,7 +5653,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5734,7 +5661,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5750,7 +5677,7 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5758,7 +5685,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -5769,7 +5696,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5777,7 +5704,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5788,10 +5715,10 @@
     </row>
     <row r="12" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5799,13 +5726,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5813,13 +5740,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5827,13 +5754,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5841,7 +5768,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5855,13 +5782,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5900,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5916,7 +5843,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -5924,7 +5851,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6029,10 +5956,10 @@
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6040,13 +5967,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6082,7 +6009,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -6157,7 +6084,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -6260,7 +6187,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -6274,13 +6201,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6288,13 +6215,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6302,13 +6229,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6316,13 +6243,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
@@ -6330,21 +6257,21 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D39" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -6371,13 +6298,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6399,7 +6326,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -6410,10 +6337,10 @@
     </row>
     <row r="45" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s" ph="1">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6458,7 +6385,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6466,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6482,7 +6409,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6490,7 +6417,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6504,7 +6431,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6514,13 +6441,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6528,24 +6455,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6553,13 +6480,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6567,24 +6494,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6592,46 +6519,46 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6639,13 +6566,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6653,24 +6580,24 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C22" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D22" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6678,13 +6605,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6692,35 +6619,35 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6728,13 +6655,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6742,13 +6669,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -6897,17 +6824,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6915,7 +6842,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6929,7 +6856,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -6943,7 +6870,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -6957,7 +6884,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -6985,7 +6912,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6999,7 +6926,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -7010,10 +6937,10 @@
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7021,7 +6948,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -7035,7 +6962,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7939903B-5005-475F-83FA-FC0C1A22B5F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551C6391-A951-498F-AD9E-E83AB10A7920}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3950,42 +3950,31 @@
 &lt;dl&gt;
 &lt;dt&gt;対面窓口&lt;/dt&gt;
 &lt;dd&gt;
-  &lt;br&gt;
   初期講習会会場（日時場所は下記Webページ内）&lt;br&gt;
   &lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;
     https://info.pre-entrance.hiroshima-u.ac.jp/
   &lt;/a&gt;
-  &lt;br&gt;
-  （4/4 12:30～15:30, 4/5 9:00～17:00）メディアセンター本館特設会場&lt;br&gt;
-  （平日 8:45～16:45）メディアセンター本館、
-  東分室（東図書館内）、
-  サービスデスク（西図書館内、中央図書館内）、
-  霞分室（基礎講義棟1F）
-  &lt;br&gt;
+  （4/4 12:30～15:30, 4/5 9:00～17:00）メディアセンター本館特設会場
+  （平日 8:45～16:45）メディアセンター本館、東分室（東図書館内）、サービスデスク（西図書館内、中央図書館内）、霞分室（基礎講義棟1F）
   &lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;
     アクセスマップ
   &lt;/a&gt;
-  &lt;br&gt;
   （4/4～5 10:00～19:00、平日 10:00～17:00）広島大学生協新入生サポートセンター
-  &lt;br&gt;
 &lt;/dd&gt;
 &lt;dt&gt;Web質問窓口: &lt;/dt&gt;
 &lt;dd&gt;
-  &lt;br&gt;
   &lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;
   https://www.media.hiroshima-u.ac.jp/helpdesk
   &lt;/a&gt;
 &lt;/dd&gt;
 &lt;dt&gt;メール質問窓口: &lt;/dt&gt;
 &lt;dd&gt;
-  &lt;br&gt;
   &lt;a href=""mailto:st-pc@ml.hiroshima-u.ac.jp""&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;
 &lt;/dd&gt;
 &lt;dt&gt;講習会(予定): &lt;/dt&gt;
 &lt;dd&gt;
-  &lt;br&gt;
-  情報メディア教育研究センターでは、皆さんの必携PCをより活用してもらえるよう、F3S (First Three Steps) 講習会を予定しています。&lt;br&gt;
-  新型肺炎の情勢のため、どのような形式とするか検討中ですが、学生生活を送る上で有用なパソコンの使い方について、一つでも多く身につけてもらえるようさまざまな内容を準備していますので、 興味のあるものが見つかったら、ぜひ参加してください。&lt;br&gt;  
+  情報メディア教育研究センターでは、皆さんの必携PCをより活用してもらえるよう、F3S (First Three Steps) 講習会を予定しています。
+  新型肺炎の情勢のため、どのような形式とするか検討中ですが、学生生活を送る上で有用なパソコンの使い方について、一つでも多く身につけてもらえるようさまざまな内容を準備していますので、 興味のあるものが見つかったら、ぜひ参加してください。 
   &lt;a href="https://f3s.riise.hiroshima-u.ac.jp"&gt;https://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
 &lt;/dd&gt;
 &lt;/dl&gt;</t>
@@ -4484,8 +4473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551C6391-A951-498F-AD9E-E83AB10A7920}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54C72F9-54B2-4D92-8FD6-0E76DB645FA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3950,15 +3950,8 @@
 &lt;dl&gt;
 &lt;dt&gt;対面窓口&lt;/dt&gt;
 &lt;dd&gt;
-  初期講習会会場（日時場所は下記Webページ内）&lt;br&gt;
-  &lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;
-    https://info.pre-entrance.hiroshima-u.ac.jp/
-  &lt;/a&gt;
-  （4/4 12:30～15:30, 4/5 9:00～17:00）メディアセンター本館特設会場
-  （平日 8:45～16:45）メディアセンター本館、東分室（東図書館内）、サービスデスク（西図書館内、中央図書館内）、霞分室（基礎講義棟1F）
-  &lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;
-    アクセスマップ
-  &lt;/a&gt;
+  初期講習会会場（日時場所は次のWebページ内） &lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;
+  （4/4 12:30～15:30, 4/5 9:00～17:00）メディアセンター本館特設会場 （平日 8:45～16:45）メディアセンター本館、東分室（東図書館内）、サービスデスク（西図書館内、中央図書館内）、霞分室（基礎講義棟1F） &lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt; アクセスマップ&lt;/a&gt;
   （4/4～5 10:00～19:00、平日 10:00～17:00）広島大学生協新入生サポートセンター
 &lt;/dd&gt;
 &lt;dt&gt;Web質問窓口: &lt;/dt&gt;
@@ -3973,11 +3966,13 @@
 &lt;/dd&gt;
 &lt;dt&gt;講習会(予定): &lt;/dt&gt;
 &lt;dd&gt;
-  情報メディア教育研究センターでは、皆さんの必携PCをより活用してもらえるよう、F3S (First Three Steps) 講習会を予定しています。
-  新型肺炎の情勢のため、どのような形式とするか検討中ですが、学生生活を送る上で有用なパソコンの使い方について、一つでも多く身につけてもらえるようさまざまな内容を準備していますので、 興味のあるものが見つかったら、ぜひ参加してください。 
+  情報メディア教育研究センターでは、皆さんの必携PCをより活用してもらえるよう、F3S (First Three Steps) 講習会を予定しています。  新型肺炎の情勢のため、どのような形式とするか検討中ですが、学生生活を送る上で有用なパソコンの使い方について、一つでも多く身につけてもらえるようさまざまな内容を準備していますので、 興味のあるものが見つかったら、ぜひ参加してください。 
   &lt;a href="https://f3s.riise.hiroshima-u.ac.jp"&gt;https://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
 &lt;/dd&gt;
 &lt;/dl&gt;</t>
+    <rPh sb="87" eb="88">
+      <t>ツギ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54C72F9-54B2-4D92-8FD6-0E76DB645FA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF65928-0C38-444B-ABCE-71F944113955}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3951,8 +3951,11 @@
 &lt;dt&gt;対面窓口&lt;/dt&gt;
 &lt;dd&gt;
   初期講習会会場（日時場所は次のWebページ内） &lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;
-  （4/4 12:30～15:30, 4/5 9:00～17:00）メディアセンター本館特設会場 （平日 8:45～16:45）メディアセンター本館、東分室（東図書館内）、サービスデスク（西図書館内、中央図書館内）、霞分室（基礎講義棟1F） &lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt; アクセスマップ&lt;/a&gt;
-  （4/4～5 10:00～19:00、平日 10:00～17:00）広島大学生協新入生サポートセンター
+  &lt;ul&gt;
+  &lt;li&gt;（4/4 12:30～15:30, 4/5 9:00～17:00）メディアセンター本館特設会場&lt;/li&gt; 
+  &lt;li&gt;（平日 8:45～16:45）メディアセンター本館、東分室（東図書館内）、サービスデスク（西図書館内、中央図書館内）、霞分室（基礎講義棟1F） &lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt; アクセスマップ&lt;/a&gt;&lt;/li&gt;
+  &lt;li&gt;（4/4～5 10:00～19:00、平日 10:00～17:00）広島大学生協新入生サポートセンター&lt;/li&gt;
+  &lt;/ul&gt;
 &lt;/dd&gt;
 &lt;dt&gt;Web質問窓口: &lt;/dt&gt;
 &lt;dd&gt;

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF65928-0C38-444B-ABCE-71F944113955}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D93B76C-893D-47AB-9941-165C921E9810}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3948,7 +3948,7 @@
   <si>
     <t>必携PCの設定・点検についてわからないことや困ったことがあったら、下記窓口に相談してください。
 &lt;dl&gt;
-&lt;dt&gt;対面窓口&lt;/dt&gt;
+&lt;dt&gt;対面窓口:&lt;/dt&gt;
 &lt;dd&gt;
   初期講習会会場（日時場所は次のWebページ内） &lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;
   &lt;ul&gt;
@@ -3973,7 +3973,7 @@
   &lt;a href="https://f3s.riise.hiroshima-u.ac.jp"&gt;https://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
 &lt;/dd&gt;
 &lt;/dl&gt;</t>
-    <rPh sb="87" eb="88">
+    <rPh sb="88" eb="89">
       <t>ツギ</t>
     </rPh>
     <phoneticPr fontId="1"/>

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D93B76C-893D-47AB-9941-165C921E9810}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0FC854-DF4C-4E32-87BB-F2CD4A165563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3965,7 +3965,9 @@
 &lt;/dd&gt;
 &lt;dt&gt;メール質問窓口: &lt;/dt&gt;
 &lt;dd&gt;
-  &lt;a href=""mailto:st-pc@ml.hiroshima-u.ac.jp""&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;
+  &lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;
+  st-pc@ml.hiroshima-u.ac.jp
+  &lt;/a&gt;
 &lt;/dd&gt;
 &lt;dt&gt;講習会(予定): &lt;/dt&gt;
 &lt;dd&gt;
@@ -4471,7 +4473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0FC854-DF4C-4E32-87BB-F2CD4A165563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3CBAB2-B199-4706-9B65-A4C94557F142}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="307">
   <si>
     <t>header1</t>
   </si>
@@ -485,9 +485,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-0-13a.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">まず、OSのバージョンを確認しましょう。画面左下のウィンドウアイコン を右クリックします。
 &lt;p class="spl"&gt;※「右クリック」はマウスの右ボタンをクリックする操作ですが、Surfaceにはマウスがついていません。その代わりに、タッチパッドの右下のあたりをタップするか、もしくは、画面を長くタップします。もしくは、ペンの側面ボタンを押しながら、ペン先で画面タップでも可。&lt;/p&gt;
 メニューが表示されるので、「システム」を探してクリックしてください。
@@ -579,45 +576,6 @@
   </si>
   <si>
     <t>win10-5-23.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Microsoft Teams について。最近のWindows10パソコンでは、サインイン時にMicrosoft Teams が自動的に起動します。これはMicrosoftが提供しているグループチャットアプリで、広大メールアドレスとパスワードでサインインして使うことができます。
-詳細はメディアセンターWebサイトの&lt;a href="https://www.media.hiroshima-u.ac.jp/services/communication/teams/"&gt;「Microsft Teams」&lt;/a&gt;で。
-また、使わない場合は画面左下のウィンドウアイコンから「設定」→「アプリ」→「スタートアップ」と進んでTeamsのスイッチを「オフ」にすると、自動起動を止めることができます。</t>
-    <rPh sb="21" eb="23">
-      <t>サイキン</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="64" eb="67">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="260" eb="261">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="264" eb="266">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="304" eb="305">
-      <t>スス</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3977,6 +3935,106 @@
 &lt;/dl&gt;</t>
     <rPh sb="88" eb="89">
       <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OneDriveはwebブラウザ経由で利用するのが安全ですが、時々ブラウザ外で動くOneDriveの同期用アプリがサインインを促してくることがあります。これを無視してもwebブラウザ経由で使うことができます。この同期アプリはWindowsの場合は元の状態に戻しづらい変更を加えるので、実験用のアカウントを作るなど、PCに十分慣れてからお試しください。</t>
+    <rPh sb="16" eb="18">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トキドキ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="142" eb="145">
+      <t>ジッケンヨウ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OneDriveNative-signin.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この他の使い方などは、メディアセンターに解説ページがありますので、ご参照ください。
+&lt;a href="https://www.media.hiroshima-u.ac.jp/services/microsoft365/teams/"&gt;https://www.media.hiroshima-u.ac.jp/services/microsoft365/teams/&lt;/a&gt;</t>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4415,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4453,7 +4511,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4473,7 +4531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4487,10 +4545,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4514,7 +4572,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4538,7 +4596,7 @@
     </row>
     <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4563,7 +4621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D1BFF-FF5C-4A7E-8C9C-E750AF0FFFAF}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -4580,7 +4638,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4588,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4604,7 +4662,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4612,7 +4670,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4628,15 +4686,15 @@
     </row>
     <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4644,13 +4702,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4658,37 +4716,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
         <v>128</v>
-      </c>
-      <c r="D14" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4696,23 +4754,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4726,7 +4784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="79" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="79" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -4744,7 +4802,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -4768,7 +4826,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -4776,7 +4834,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -4796,7 +4854,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4804,13 +4862,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4818,21 +4876,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4846,7 +4904,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4854,29 +4912,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4890,7 +4948,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -4898,13 +4956,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -4912,13 +4970,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -4926,7 +4984,7 @@
         <v>106</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4934,13 +4992,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4948,21 +5006,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -4970,13 +5028,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4984,24 +5042,24 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5009,13 +5067,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s" ph="1">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -5029,7 +5087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -5046,7 +5104,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5078,7 +5136,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5092,7 +5150,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -5106,7 +5164,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -5134,7 +5192,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5148,7 +5206,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5162,7 +5220,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -5176,7 +5234,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5204,7 +5262,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5224,7 +5282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5241,7 +5299,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5249,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5273,7 +5331,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5326,7 +5384,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5340,7 +5398,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5373,7 +5431,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5381,13 +5439,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -5395,7 +5453,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5423,13 +5481,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5437,13 +5495,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5474,7 +5532,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5482,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5498,7 +5556,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5506,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5522,44 +5580,44 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
         <v>151</v>
-      </c>
-      <c r="D11" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5567,13 +5625,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5618,7 +5676,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5626,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5642,7 +5700,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5650,7 +5708,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5666,7 +5724,7 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5674,7 +5732,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -5685,7 +5743,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5693,7 +5751,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5704,10 +5762,10 @@
     </row>
     <row r="12" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5715,7 +5773,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5735,7 +5793,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5743,13 +5801,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>247</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5757,7 +5815,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5771,13 +5829,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5789,10 +5847,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5816,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5832,7 +5890,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -5840,7 +5898,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5945,10 +6003,10 @@
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5956,13 +6014,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5998,7 +6056,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -6073,7 +6131,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -6176,7 +6234,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -6190,13 +6248,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6204,13 +6262,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
         <v>197</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6218,13 +6276,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6232,13 +6290,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
         <v>192</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
@@ -6246,21 +6304,21 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
         <v>193</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" t="s">
         <v>198</v>
-      </c>
-      <c r="D39" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -6293,7 +6351,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6324,12 +6382,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" t="s" ph="1">
-        <v>112</v>
+        <v>304</v>
+      </c>
+      <c r="D45" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6345,6 +6403,9 @@
       <c r="D46" t="s">
         <v>89</v>
       </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47" ph="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6357,8 +6418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB449D4-AFC1-462F-B851-41C4675E501D}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6374,7 +6435,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6382,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6398,7 +6459,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6406,7 +6467,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6420,7 +6481,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6430,13 +6491,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6444,24 +6505,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6469,13 +6530,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6483,24 +6544,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6508,46 +6569,46 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6555,13 +6616,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6569,24 +6630,24 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6594,13 +6655,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6608,35 +6669,35 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6644,13 +6705,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6658,13 +6719,18 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>285</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -6813,17 +6879,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6831,7 +6897,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6845,7 +6911,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -6859,7 +6925,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -6873,7 +6939,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -6901,7 +6967,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6926,7 +6992,7 @@
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
         <v>103</v>
@@ -6937,7 +7003,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -6951,7 +7017,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3CBAB2-B199-4706-9B65-A4C94557F142}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF72A12-C678-425F-A71F-3FBCFFFCD72B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -297,9 +297,6 @@
 「ユーザ名」には広大ID（学生番号と同じ）を、「パスワード」には広大パスワードを入力してください。
 入力したら「ログイン」をクリックします。
    </t>
-  </si>
-  <si>
-    <t>win10-6-15.svg</t>
   </si>
   <si>
     <t xml:space="preserve">一番最初にログインしたときだけ、この画面が開きます。
@@ -4036,6 +4033,10 @@
     <rPh sb="34" eb="36">
       <t>サンショウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bb9-login.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4473,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4489,7 +4490,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4497,7 +4498,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4511,7 +4512,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4545,10 +4546,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4556,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4572,7 +4573,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4580,7 +4581,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4591,12 +4592,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4621,8 +4622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D1BFF-FF5C-4A7E-8C9C-E750AF0FFFAF}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4638,7 +4639,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4646,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4662,7 +4663,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4670,7 +4671,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4686,15 +4687,15 @@
     </row>
     <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4702,13 +4703,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4716,37 +4717,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" t="s">
         <v>174</v>
-      </c>
-      <c r="D13" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" t="s">
         <v>127</v>
-      </c>
-      <c r="D14" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4754,23 +4755,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4802,7 +4803,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -4826,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -4834,7 +4835,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -4854,7 +4855,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4862,13 +4863,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4876,21 +4877,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4898,13 +4899,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4912,29 +4913,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4942,13 +4943,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -4956,13 +4957,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -4970,21 +4971,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4992,13 +4993,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5006,21 +5007,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -5028,13 +5029,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -5042,24 +5043,24 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5067,13 +5068,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s" ph="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -5104,7 +5105,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5128,7 +5129,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5136,7 +5137,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5150,7 +5151,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -5164,7 +5165,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -5178,7 +5179,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -5192,7 +5193,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5206,7 +5207,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5220,7 +5221,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -5234,7 +5235,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5248,7 +5249,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -5262,7 +5263,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5299,7 +5300,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5307,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5323,7 +5324,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5331,7 +5332,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5384,7 +5385,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5392,13 +5393,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5425,13 +5426,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5439,13 +5440,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -5453,7 +5454,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5467,7 +5468,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -5481,13 +5482,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5495,13 +5496,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5532,7 +5533,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5540,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5556,7 +5557,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5564,7 +5565,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5580,44 +5581,44 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5625,13 +5626,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5639,7 +5640,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5676,7 +5677,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5684,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5700,7 +5701,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5708,7 +5709,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5724,7 +5725,7 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5732,7 +5733,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -5743,7 +5744,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5751,7 +5752,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5762,10 +5763,10 @@
     </row>
     <row r="12" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5773,13 +5774,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5787,13 +5788,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5801,13 +5802,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5815,7 +5816,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5829,13 +5830,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -5849,8 +5850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5874,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5890,7 +5891,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -5898,7 +5899,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6003,10 +6004,10 @@
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6014,13 +6015,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6056,7 +6057,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -6131,7 +6132,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -6212,7 +6213,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6220,13 +6221,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -6234,13 +6235,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6248,13 +6249,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6262,13 +6263,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6276,13 +6277,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6290,13 +6291,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
@@ -6304,26 +6305,26 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6331,7 +6332,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -6345,13 +6346,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6359,13 +6360,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6373,21 +6374,21 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D45" t="s">
         <v>304</v>
-      </c>
-      <c r="D45" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6395,13 +6396,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -6435,7 +6436,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6443,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6459,7 +6460,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6467,7 +6468,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6481,7 +6482,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6491,13 +6492,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6505,24 +6506,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6530,13 +6531,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6544,24 +6545,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6569,46 +6570,46 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6616,13 +6617,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6630,24 +6631,24 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6655,13 +6656,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6669,35 +6670,35 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6705,13 +6706,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6719,18 +6720,18 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -6879,17 +6880,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6897,7 +6898,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6911,7 +6912,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -6925,7 +6926,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -6939,7 +6940,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -6967,7 +6968,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6981,7 +6982,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -6992,10 +6993,10 @@
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7003,7 +7004,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -7017,7 +7018,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF72A12-C678-425F-A71F-3FBCFFFCD72B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B49FC5-1222-496E-BD9D-DC3B8D9028EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5850,8 +5850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6021,7 +6021,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B49FC5-1222-496E-BD9D-DC3B8D9028EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B39A5F-54E6-46EC-B4A9-C3F0B1E3641C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,9 +211,6 @@
   <si>
     <t xml:space="preserve">「Office365ポータル」をクリックしてください。
   </t>
-  </si>
-  <si>
-    <t>win10-6-04.svg</t>
   </si>
   <si>
     <t xml:space="preserve">Office365で使えるアプリの一覧が表示されます。「Outlook」をクリック。 
@@ -4037,6 +4034,10 @@
   </si>
   <si>
     <t>bb9-login.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>office365-portal.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4474,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4490,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4498,7 +4499,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4512,7 +4513,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4546,10 +4547,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4557,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4573,7 +4574,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4581,7 +4582,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4592,12 +4593,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4639,7 +4640,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4647,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4663,7 +4664,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4671,7 +4672,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4687,15 +4688,15 @@
     </row>
     <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4703,13 +4704,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4717,37 +4718,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" t="s">
         <v>173</v>
-      </c>
-      <c r="D13" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" t="s">
         <v>126</v>
-      </c>
-      <c r="D14" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4755,23 +4756,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4803,7 +4804,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -4827,7 +4828,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -4835,7 +4836,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -4855,7 +4856,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4863,13 +4864,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4877,21 +4878,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4899,13 +4900,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4913,29 +4914,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4943,13 +4944,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -4957,13 +4958,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -4971,21 +4972,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4993,13 +4994,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5007,21 +5008,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -5029,13 +5030,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -5043,24 +5044,24 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5068,13 +5069,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s" ph="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -5105,7 +5106,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5129,7 +5130,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5137,7 +5138,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5151,7 +5152,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -5165,7 +5166,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -5179,7 +5180,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -5193,7 +5194,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5207,7 +5208,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5221,7 +5222,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -5235,7 +5236,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5249,7 +5250,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -5263,7 +5264,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5300,7 +5301,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5308,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5324,7 +5325,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5332,7 +5333,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5385,7 +5386,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5393,13 +5394,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5426,13 +5427,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5440,13 +5441,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -5454,7 +5455,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5468,7 +5469,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -5482,13 +5483,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5496,13 +5497,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5533,7 +5534,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5541,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5557,7 +5558,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5565,7 +5566,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5581,44 +5582,44 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5626,13 +5627,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5640,7 +5641,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5677,7 +5678,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5685,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5701,7 +5702,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5709,7 +5710,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5725,7 +5726,7 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5733,7 +5734,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -5744,7 +5745,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5752,7 +5753,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5763,10 +5764,10 @@
     </row>
     <row r="12" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5774,13 +5775,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5788,13 +5789,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5802,13 +5803,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5816,7 +5817,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5830,13 +5831,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -5850,8 +5851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5875,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5891,7 +5892,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -5899,7 +5900,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5999,15 +6000,15 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6015,13 +6016,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6029,13 +6030,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6043,13 +6044,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
         <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6057,13 +6058,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6071,13 +6072,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6085,18 +6086,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -6118,13 +6119,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6132,13 +6133,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6146,18 +6147,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -6179,13 +6180,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6193,13 +6194,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6207,13 +6208,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6221,13 +6222,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>79</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -6235,13 +6236,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6249,13 +6250,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6263,13 +6264,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6277,13 +6278,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6291,13 +6292,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
@@ -6305,26 +6306,26 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6332,7 +6333,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -6346,13 +6347,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6360,13 +6361,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6374,21 +6375,21 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D45" t="s">
         <v>303</v>
-      </c>
-      <c r="D45" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6396,13 +6397,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -6436,7 +6437,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6444,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6460,7 +6461,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6468,7 +6469,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6482,7 +6483,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6492,13 +6493,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6506,24 +6507,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6531,13 +6532,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6545,24 +6546,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6570,46 +6571,46 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6617,13 +6618,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6631,24 +6632,24 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6656,13 +6657,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6670,35 +6671,35 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6706,13 +6707,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6720,18 +6721,18 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -6880,17 +6881,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6898,7 +6899,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6912,7 +6913,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -6926,7 +6927,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -6940,7 +6941,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -6968,7 +6969,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6982,7 +6983,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -6993,10 +6994,10 @@
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7004,7 +7005,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -7018,7 +7019,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B39A5F-54E6-46EC-B4A9-C3F0B1E3641C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D510E740-7321-42F0-AC88-F47DA424BE45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,10 +207,6 @@
   </si>
   <si>
     <t>win10-6-03.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「Office365ポータル」をクリックしてください。
-  </t>
   </si>
   <si>
     <t xml:space="preserve">Office365で使えるアプリの一覧が表示されます。「Outlook」をクリック。 
@@ -2094,24 +2090,6 @@
     </rPh>
     <rPh sb="251" eb="253">
       <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Bb9で配布されている教材をダウンロードできることを確認するため、「ノートパソコン点検届」のコースをみてみましょう。
-まず、コース一覧から「ノートパソコン点検届2021」をクリックしてコースを開きましょう。
-  </t>
-    <rPh sb="41" eb="43">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>トドケ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4038,6 +4016,41 @@
   </si>
   <si>
     <t>office365-portal.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bb9で配布されている教材をダウンロードできることを確認するため、「ノートパソコン点検届」のコースをみてみましょう。
+まず、コース一覧から「ノートパソコン点検届2021」をクリックしてコースを開きましょう。(画面は2020年度のものを示していますので、ご注意ください)
+  </t>
+    <rPh sb="41" eb="43">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">portal.office.comへのリンクをクリックしてください。
+  </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4475,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4491,7 +4504,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4499,7 +4512,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4513,7 +4526,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4547,10 +4560,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4558,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4574,7 +4587,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4582,7 +4595,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4593,12 +4606,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4640,7 +4653,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4648,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4664,7 +4677,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4672,7 +4685,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4688,15 +4701,15 @@
     </row>
     <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4704,13 +4717,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4718,37 +4731,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" t="s">
         <v>172</v>
-      </c>
-      <c r="D13" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
         <v>125</v>
-      </c>
-      <c r="D14" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4756,23 +4769,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4804,7 +4817,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -4828,7 +4841,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -4836,7 +4849,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -4856,7 +4869,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4864,13 +4877,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4878,21 +4891,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4900,13 +4913,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4914,29 +4927,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4944,13 +4957,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -4958,13 +4971,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -4972,21 +4985,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4994,13 +5007,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5008,21 +5021,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -5030,13 +5043,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -5044,24 +5057,24 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5069,13 +5082,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s" ph="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5106,7 +5119,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5130,7 +5143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5138,7 +5151,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5152,7 +5165,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -5166,7 +5179,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -5180,7 +5193,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -5194,7 +5207,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5208,7 +5221,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5222,7 +5235,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -5236,7 +5249,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5250,7 +5263,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -5264,7 +5277,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5301,7 +5314,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5309,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5325,7 +5338,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5333,7 +5346,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5386,7 +5399,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5394,13 +5407,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5427,13 +5440,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5441,13 +5454,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -5455,7 +5468,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5469,7 +5482,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -5483,13 +5496,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5497,13 +5510,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -5534,7 +5547,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5542,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5558,7 +5571,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5566,7 +5579,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5582,44 +5595,44 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5627,13 +5640,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5641,7 +5654,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5678,7 +5691,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5686,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5702,7 +5715,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5710,7 +5723,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5726,7 +5739,7 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5734,7 +5747,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -5745,7 +5758,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5753,7 +5766,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5764,10 +5777,10 @@
     </row>
     <row r="12" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5775,13 +5788,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5789,13 +5802,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5803,13 +5816,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>243</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5817,7 +5830,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5831,13 +5844,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5851,8 +5864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5876,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5892,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -5900,7 +5913,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5994,21 +6007,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>306</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6016,13 +6029,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6030,13 +6043,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6044,13 +6057,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6058,13 +6071,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6072,13 +6085,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6086,18 +6099,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -6119,13 +6132,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6133,13 +6146,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6147,18 +6160,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>70</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -6180,13 +6193,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6194,13 +6207,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>75</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6208,13 +6221,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6222,13 +6235,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>78</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -6236,27 +6249,27 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>216</v>
+        <v>305</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6264,13 +6277,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6278,13 +6291,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6292,13 +6305,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
@@ -6306,26 +6319,26 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6333,7 +6346,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -6347,13 +6360,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6361,13 +6374,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6375,21 +6388,21 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D45" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6397,13 +6410,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -6437,7 +6450,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6445,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6461,7 +6474,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6469,7 +6482,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6483,7 +6496,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6493,13 +6506,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6507,24 +6520,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6532,13 +6545,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6546,24 +6559,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6571,46 +6584,46 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6618,13 +6631,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6632,24 +6645,24 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6657,13 +6670,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6671,35 +6684,35 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6707,13 +6720,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6721,18 +6734,18 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -6881,17 +6894,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6899,7 +6912,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6913,7 +6926,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -6927,7 +6940,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -6941,7 +6954,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -6969,7 +6982,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6983,7 +6996,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -6994,10 +7007,10 @@
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7005,7 +7018,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -7019,7 +7032,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D510E740-7321-42F0-AC88-F47DA424BE45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADC8166-3929-4607-BB93-B935DBCF7712}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1479,11 +1479,6 @@
     <rPh sb="112" eb="113">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">このようにPDFファイルの内容が表示されます。使っているソフト（「環境」といったりしますね）によっては、画面に直接表示されない場合もあります。そのときは、「ここをクリックして〇〇を開いてください」をクリックします。
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4051,6 +4046,20 @@
   <si>
     <t xml:space="preserve">portal.office.comへのリンクをクリックしてください。
   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このようにPDFファイルの内容が表示されます。使っているソフト（「環境」といったりしますね）によっては、画面に直接表示されない場合もあります。そのときは、「ここをクリックして〇〇を開いてください」をクリックします。(ここでは2020年度の画像を示しています)
+  </t>
+    <rPh sb="116" eb="118">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>シメ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4488,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4563,7 +4572,7 @@
         <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4587,7 +4596,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4611,7 +4620,7 @@
     </row>
     <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4677,7 +4686,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4701,7 +4710,7 @@
     </row>
     <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D8" t="s">
         <v>152</v>
@@ -4717,7 +4726,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -4841,7 +4850,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -4849,7 +4858,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -4869,7 +4878,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4877,7 +4886,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
@@ -4891,13 +4900,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4905,7 +4914,7 @@
         <v>111</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4919,7 +4928,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4927,13 +4936,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -4941,15 +4950,15 @@
         <v>185</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4963,7 +4972,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -4971,13 +4980,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -4985,13 +4994,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -4999,7 +5008,7 @@
         <v>103</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5013,7 +5022,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5027,12 +5036,12 @@
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s" ph="1">
         <v>119</v>
@@ -5043,7 +5052,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
@@ -5063,18 +5072,18 @@
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5119,7 +5128,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5151,7 +5160,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5346,7 +5355,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5547,7 +5556,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5555,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5571,7 +5580,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5579,7 +5588,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5595,7 +5604,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5691,7 +5700,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5699,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5715,7 +5724,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5723,7 +5732,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5739,7 +5748,7 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5747,7 +5756,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -5758,7 +5767,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5766,7 +5775,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5777,7 +5786,7 @@
     </row>
     <row r="12" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D12" t="s">
         <v>128</v>
@@ -5788,7 +5797,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5808,7 +5817,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5816,13 +5825,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5864,8 +5873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5905,7 +5914,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -5913,7 +5922,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6007,13 +6016,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6021,7 +6030,7 @@
         <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6035,7 +6044,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6227,7 +6236,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6249,7 +6258,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -6263,13 +6272,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6277,27 +6286,27 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>186</v>
+        <v>306</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6305,13 +6314,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
@@ -6319,21 +6328,21 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -6399,10 +6408,10 @@
     </row>
     <row r="45" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D45" t="s">
         <v>300</v>
-      </c>
-      <c r="D45" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6450,7 +6459,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6458,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6474,7 +6483,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6482,7 +6491,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6496,7 +6505,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6506,13 +6515,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6520,24 +6529,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6545,13 +6554,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6559,24 +6568,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6584,46 +6593,46 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6631,13 +6640,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6645,24 +6654,24 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6670,13 +6679,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6684,35 +6693,35 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6720,13 +6729,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6734,18 +6743,18 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -6894,17 +6903,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADC8166-3929-4607-BB93-B935DBCF7712}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8EBD8E-822B-431D-AB64-689D9B99B4BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4049,15 +4049,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">このようにPDFファイルの内容が表示されます。使っているソフト（「環境」といったりしますね）によっては、画面に直接表示されない場合もあります。そのときは、「ここをクリックして〇〇を開いてください」をクリックします。(ここでは2020年度の画像を示しています)
+    <t xml:space="preserve">このようにPDFファイルの内容が表示されます。使っているソフト（「環境」といったりしますね）によっては、画面に直接表示されない場合もあります。そのときは、「ここをクリックして〇〇を開いてください」をクリックします。(ここでは2020年度のPDFを示しています)
   </t>
     <rPh sb="116" eb="118">
       <t>ネンド</t>
     </rPh>
-    <rPh sb="119" eb="121">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="122" eb="123">
+    <rPh sb="123" eb="124">
       <t>シメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -5874,7 +5871,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8EBD8E-822B-431D-AB64-689D9B99B4BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5B9A72-68B1-48EF-995C-64C483926638}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -3527,91 +3527,6 @@
     </rPh>
     <rPh sb="163" eb="165">
       <t>ヘンジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会議に出ていなくても、チャットをしていなくても、Teamsの画面を閉じていても、サインインしている状態では、ネットワークに接続していれば、他の人には「連絡可能」な状態として見えています。Teamsの自分のアイコンをクリックして出るメニューからサインアウトすることができます。サインアウトすると通知アイコンも無くなり、チャットで話しかけられても何も通知されなくなります。ただし、Microsoftのサーバ側ではこの間に貴方に話しかけられたチャットが記録されており、再度サインインすると過去の未読のメッセージを読むことができます。</t>
-    <rPh sb="0" eb="2">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="155" eb="156">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="165" eb="166">
-      <t>ハナシ</t>
-    </rPh>
-    <rPh sb="173" eb="174">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="203" eb="204">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="208" eb="209">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="210" eb="212">
-      <t>アナタ</t>
-    </rPh>
-    <rPh sb="213" eb="214">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="225" eb="227">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="243" eb="245">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="246" eb="248">
-      <t>ミドク</t>
-    </rPh>
-    <rPh sb="255" eb="256">
-      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4056,6 +3971,85 @@
     </rPh>
     <rPh sb="123" eb="124">
       <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teamsの画面を閉じていても、サインインしている状態では、ネットワークに接続していれば、他の人には「連絡可能」な状態として見えています。Teamsの自分のアイコンをクリックして出るメニューからサインアウトすることができます。サインアウトすると通知アイコンも無くなり、チャットで話しかけられても何も通知されなくなります。ただし、Microsoftのサーバ側ではこの間に貴方に話しかけられたチャットが記録されており、再度サインインすると過去の未読のメッセージを読むことができます。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>ハナシ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>アナタ</t>
+    </rPh>
+    <rPh sb="189" eb="190">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>ミドク</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4494,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4569,7 +4563,7 @@
         <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4617,7 +4611,7 @@
     </row>
     <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4723,7 +4717,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5577,7 +5571,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5601,7 +5595,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5870,7 +5864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -5911,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -6013,13 +6007,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6233,7 +6227,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6269,7 +6263,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -6297,7 +6291,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -6405,10 +6399,10 @@
     </row>
     <row r="45" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D45" t="s">
         <v>299</v>
-      </c>
-      <c r="D45" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6439,7 +6433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB449D4-AFC1-462F-B851-41C4675E501D}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -6456,7 +6450,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6464,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6480,7 +6474,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6488,7 +6482,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6740,7 +6734,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -6751,7 +6745,7 @@
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -6900,12 +6894,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5B9A72-68B1-48EF-995C-64C483926638}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FAFF3F-61BD-40EE-9561-C2793762CB3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6384" tabRatio="782" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="782" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="308">
   <si>
     <t>header1</t>
   </si>
@@ -4050,6 +4050,19 @@
     </rPh>
     <rPh sb="231" eb="232">
       <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下は付録としての情報です。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4475,15 +4488,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4491,7 +4504,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4499,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4507,7 +4520,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4521,7 +4534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4550,15 +4563,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>168</v>
       </c>
@@ -4566,7 +4579,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4574,7 +4587,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4582,7 +4595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4590,7 +4603,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4604,17 +4617,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -4640,15 +4653,15 @@
       <selection activeCell="B16" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4656,7 +4669,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4664,7 +4677,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4672,7 +4685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4680,7 +4693,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4694,12 +4707,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>247</v>
       </c>
@@ -4707,12 +4720,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -4726,7 +4739,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -4740,7 +4753,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>170</v>
       </c>
@@ -4748,7 +4761,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>171</v>
       </c>
@@ -4756,7 +4769,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>124</v>
       </c>
@@ -4764,7 +4777,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4778,12 +4791,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>149</v>
       </c>
@@ -4803,16 +4816,16 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="21" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1" phonetic="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1" phonetic="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1" phonetic="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1" phonetic="1"/>
-    <col min="5" max="16384" width="8.77734375" phonetic="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1" phonetic="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1" phonetic="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1" phonetic="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1" phonetic="1"/>
+    <col min="5" max="16384" width="8.75" phonetic="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ph="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s" ph="1">
         <v>5</v>
       </c>
@@ -4820,7 +4833,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s" ph="1">
         <v>0</v>
       </c>
@@ -4828,7 +4841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s" ph="1">
         <v>1</v>
       </c>
@@ -4836,7 +4849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s" ph="1">
         <v>3</v>
       </c>
@@ -4844,7 +4857,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s" ph="1">
         <v>4</v>
       </c>
@@ -4858,7 +4871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="42" ph="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s" ph="1">
         <v>4</v>
       </c>
@@ -4872,7 +4885,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="63" ph="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s" ph="1">
         <v>4</v>
       </c>
@@ -4886,7 +4899,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="42" ph="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s" ph="1">
         <v>4</v>
       </c>
@@ -4900,7 +4913,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="42" ph="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s" ph="1">
         <v>111</v>
       </c>
@@ -4908,7 +4921,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="42" ph="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s" ph="1">
         <v>4</v>
       </c>
@@ -4922,7 +4935,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="147" ph="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s" ph="1">
         <v>4</v>
       </c>
@@ -4936,7 +4949,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="63" ph="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s" ph="1">
         <v>185</v>
       </c>
@@ -4944,7 +4957,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="42" ph="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s" ph="1">
         <v>243</v>
       </c>
@@ -4952,7 +4965,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="126" ph="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s" ph="1">
         <v>4</v>
       </c>
@@ -4966,7 +4979,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="105" ph="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s" ph="1">
         <v>4</v>
       </c>
@@ -4980,7 +4993,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="84" ph="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s" ph="1">
         <v>4</v>
       </c>
@@ -4994,7 +5007,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s" ph="1">
         <v>103</v>
       </c>
@@ -5002,7 +5015,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="126" ph="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s" ph="1">
         <v>4</v>
       </c>
@@ -5016,7 +5029,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="42" ph="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s" ph="1">
         <v>4</v>
       </c>
@@ -5030,7 +5043,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="42" ph="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s" ph="1">
         <v>236</v>
       </c>
@@ -5038,7 +5051,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="84" ph="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s" ph="1">
         <v>4</v>
       </c>
@@ -5052,7 +5065,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="147" ph="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s" ph="1">
         <v>4</v>
       </c>
@@ -5066,7 +5079,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s" ph="1">
         <v>234</v>
       </c>
@@ -5077,7 +5090,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="42" ph="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s" ph="1">
         <v>4</v>
       </c>
@@ -5106,15 +5119,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5122,7 +5135,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5130,7 +5143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5138,7 +5151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5146,7 +5159,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5160,7 +5173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5174,7 +5187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="198" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="189" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -5188,7 +5201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5202,7 +5215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5216,7 +5229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -5230,7 +5243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -5244,7 +5257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5258,7 +5271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5272,7 +5285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5301,15 +5314,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5317,7 +5330,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5325,7 +5338,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5333,7 +5346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5341,7 +5354,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5355,12 +5368,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -5374,7 +5387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5388,7 +5401,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5402,7 +5415,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -5416,7 +5429,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -5430,12 +5443,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5449,7 +5462,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5463,7 +5476,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -5477,7 +5490,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5491,7 +5504,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -5505,7 +5518,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -5534,15 +5547,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5550,7 +5563,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5558,7 +5571,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5566,7 +5579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5574,7 +5587,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5588,22 +5601,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>145</v>
       </c>
@@ -5611,7 +5624,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>146</v>
       </c>
@@ -5619,7 +5632,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>169</v>
       </c>
@@ -5627,7 +5640,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>161</v>
       </c>
@@ -5635,7 +5648,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5649,7 +5662,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5678,15 +5691,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5694,7 +5707,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5702,7 +5715,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5710,7 +5723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5718,7 +5731,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5732,17 +5745,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5756,12 +5769,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -5775,7 +5788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>250</v>
       </c>
@@ -5783,7 +5796,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5797,7 +5810,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5811,7 +5824,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5825,7 +5838,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -5839,7 +5852,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" ht="92.4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
@@ -5868,15 +5881,15 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5884,7 +5897,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5892,7 +5905,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5900,7 +5913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5908,7 +5921,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="270" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5922,12 +5935,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -5941,7 +5954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5955,7 +5968,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5969,12 +5982,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -5988,7 +6001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -6002,7 +6015,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -6016,7 +6029,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>124</v>
       </c>
@@ -6024,7 +6037,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -6038,7 +6051,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -6052,7 +6065,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -6066,7 +6079,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -6080,7 +6093,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -6094,7 +6107,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -6108,12 +6121,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6127,7 +6140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -6141,7 +6154,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -6155,7 +6168,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -6169,12 +6182,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -6188,7 +6201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -6202,7 +6215,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -6216,7 +6229,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -6230,7 +6243,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -6244,7 +6257,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="189" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -6258,7 +6271,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -6272,7 +6285,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -6286,7 +6299,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -6300,7 +6313,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -6314,7 +6327,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -6328,7 +6341,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>192</v>
       </c>
@@ -6336,12 +6349,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -6355,7 +6368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -6369,7 +6382,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -6383,7 +6396,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="108" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -6397,7 +6410,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>298</v>
       </c>
@@ -6405,7 +6418,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -6419,7 +6432,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.15">
       <c r="D47" ph="1"/>
     </row>
   </sheetData>
@@ -6431,21 +6444,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB449D4-AFC1-462F-B851-41C4675E501D}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="38.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -6453,7 +6466,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6461,7 +6474,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6469,7 +6482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6477,7 +6490,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -6491,7 +6504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -6499,12 +6512,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>258</v>
       </c>
@@ -6515,7 +6528,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -6529,7 +6542,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>214</v>
       </c>
@@ -6540,7 +6553,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -6554,7 +6567,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -6568,7 +6581,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>268</v>
       </c>
@@ -6579,7 +6592,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -6593,254 +6606,259 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>280</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="6"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="D49" ph="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D52" ph="1"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+      <c r="D50" ph="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+      <c r="D53" ph="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6857,15 +6875,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -6873,7 +6891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6881,7 +6899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6889,7 +6907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6897,17 +6915,17 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -6921,7 +6939,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -6935,7 +6953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -6949,7 +6967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -6963,7 +6981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -6977,7 +6995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -6991,7 +7009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -7005,7 +7023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>141</v>
       </c>
@@ -7013,7 +7031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -7027,7 +7045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>4</v>
       </c>

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FAFF3F-61BD-40EE-9561-C2793762CB3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AFB281-7250-47CD-A436-6217FB0EA797}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="6390" tabRatio="782" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -4488,15 +4488,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4563,15 +4563,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>168</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4617,17 +4617,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -4653,15 +4653,15 @@
       <selection activeCell="B16" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4707,12 +4707,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>247</v>
       </c>
@@ -4720,12 +4720,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>170</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>171</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>124</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4791,12 +4791,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>149</v>
       </c>
@@ -4816,16 +4816,16 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="21" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1" phonetic="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1" phonetic="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1" phonetic="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1" phonetic="1"/>
-    <col min="5" max="16384" width="8.75" phonetic="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" phonetic="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1" phonetic="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1" phonetic="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1" phonetic="1"/>
+    <col min="5" max="16384" width="8.77734375" phonetic="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ph="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s" ph="1">
         <v>5</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s" ph="1">
         <v>0</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s" ph="1">
         <v>1</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s" ph="1">
         <v>3</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s" ph="1">
         <v>4</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42" ph="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s" ph="1">
         <v>4</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="63" ph="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s" ph="1">
         <v>4</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42" ph="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s" ph="1">
         <v>4</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42" ph="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
         <v>111</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42" ph="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s" ph="1">
         <v>4</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="147" ph="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s" ph="1">
         <v>4</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="63" ph="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
         <v>185</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="42" ph="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
         <v>243</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="126" ph="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s" ph="1">
         <v>4</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="105" ph="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s" ph="1">
         <v>4</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="84" ph="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s" ph="1">
         <v>4</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
         <v>103</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="126" ph="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s" ph="1">
         <v>4</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42" ph="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s" ph="1">
         <v>4</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42" ph="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
         <v>236</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="84" ph="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s" ph="1">
         <v>4</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="147" ph="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s" ph="1">
         <v>4</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
         <v>234</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="42" ph="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s" ph="1">
         <v>4</v>
       </c>
@@ -5119,15 +5119,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="189" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="198" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5310,19 +5310,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5368,12 +5368,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -5443,12 +5443,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -5547,15 +5547,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5601,22 +5601,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>145</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>146</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>169</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>161</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5691,15 +5691,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5745,17 +5745,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5769,12 +5769,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>250</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" s="5" customFormat="1" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
@@ -5881,15 +5881,15 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="270" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5935,12 +5935,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5982,12 +5982,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>124</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -6121,12 +6121,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -6182,12 +6182,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="189" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>192</v>
       </c>
@@ -6349,12 +6349,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>298</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="D47" ph="1"/>
     </row>
   </sheetData>
@@ -6446,19 +6446,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB449D4-AFC1-462F-B851-41C4675E501D}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="38.375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -6512,12 +6512,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>258</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>214</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>268</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -6606,12 +6606,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>284</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>217</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>264</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="92.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>285</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>282</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>283</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -6761,77 +6761,77 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -6839,25 +6839,25 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="D50" ph="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="D53" ph="1"/>
     </row>
   </sheetData>
@@ -6875,15 +6875,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6915,17 +6915,17 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>141</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AFB281-7250-47CD-A436-6217FB0EA797}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86A88F8-A157-49A2-AB12-98883A3AF664}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -343,26 +343,6 @@
 表示されるウィンドウの左の「PC」をクリックしてください。
 すると、左図のように「ローカルディスク (C:)」というラベルとともに、HDD/SSDの空き容量と全容量が表示されます。この場合は117GB（ギガバイト）です。
   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Win10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Widows10編&lt;/h3&gt;
-2020年4月&lt;br&gt;
- 広島大学 情報メディア教育研究センター&lt;br&gt;
- 広島大学 消費生活協同組合 
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Win10 chap.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Win10 chap.2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3707,15 +3687,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2020 Win10 chap.7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2021 Win10 chap.6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2020 Win10 chap.5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4064,6 +4036,33 @@
     <rPh sb="9" eb="11">
       <t>ジョウホウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;Widows10編&lt;/h3&gt;
+2021年3月&lt;br&gt;
+ 広島大学 情報メディア教育研究センター&lt;br&gt;
+ 広島大学 消費生活協同組合 
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10 chap.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10 chap.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10 chap.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10 chap.7</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4484,8 +4483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4501,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4517,7 +4516,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4525,7 +4524,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>303</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4539,7 +4538,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4573,10 +4572,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4600,7 +4599,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4624,7 +4623,7 @@
     </row>
     <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4666,7 +4665,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4674,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4690,7 +4689,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4698,7 +4697,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4714,15 +4713,15 @@
     </row>
     <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4730,13 +4729,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4744,37 +4743,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4782,23 +4781,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4812,7 +4811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="79" workbookViewId="0">
+    <sheetView zoomScale="79" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -4830,7 +4829,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -4854,7 +4853,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -4862,7 +4861,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -4882,7 +4881,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4890,13 +4889,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -4904,21 +4903,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -4926,13 +4925,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -4940,29 +4939,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -4970,13 +4969,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -4984,13 +4983,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -4998,21 +4997,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5020,13 +5019,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5034,21 +5033,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -5056,13 +5055,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -5070,24 +5069,24 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5095,13 +5094,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s" ph="1">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -5115,202 +5114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="198" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5327,7 +5131,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5335,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5351,7 +5155,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5359,7 +5163,202 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="198" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5412,7 +5411,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5420,13 +5419,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5453,13 +5452,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5467,13 +5466,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -5481,7 +5480,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5495,7 +5494,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -5509,13 +5508,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5523,13 +5522,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5560,7 +5559,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5568,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5584,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5592,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5608,44 +5607,44 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5653,13 +5652,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5667,7 +5666,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5704,7 +5703,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5712,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5728,7 +5727,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5736,7 +5735,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5752,7 +5751,7 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5760,7 +5759,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -5771,7 +5770,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5779,7 +5778,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5790,10 +5789,10 @@
     </row>
     <row r="12" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5801,13 +5800,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5815,13 +5814,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5829,13 +5828,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5843,7 +5842,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5857,13 +5856,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5877,8 +5876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B34" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5902,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5918,7 +5917,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -5926,7 +5925,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6020,21 +6019,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6042,13 +6041,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6084,7 +6083,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -6159,7 +6158,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -6240,7 +6239,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6262,7 +6261,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -6276,13 +6275,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6290,13 +6289,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6304,13 +6303,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6318,13 +6317,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
@@ -6332,21 +6331,21 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -6373,13 +6372,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6401,7 +6400,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -6412,10 +6411,10 @@
     </row>
     <row r="45" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D45" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6463,7 +6462,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6471,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6487,7 +6486,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6495,7 +6494,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6509,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6519,13 +6518,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6533,24 +6532,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6558,13 +6557,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6572,24 +6571,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6597,51 +6596,51 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6649,13 +6648,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6663,24 +6662,24 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C23" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6688,13 +6687,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6702,35 +6701,35 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6738,13 +6737,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6752,18 +6751,18 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -6872,7 +6871,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6912,17 +6911,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6930,7 +6929,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6944,7 +6943,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -6958,7 +6957,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -6972,7 +6971,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -7000,7 +6999,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -7014,7 +7013,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -7025,10 +7024,10 @@
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7036,7 +7035,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -7050,7 +7049,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86A88F8-A157-49A2-AB12-98883A3AF664}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF861C4-7DD5-4772-9CB0-1B1CAB37A37A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
     <sheet name="ch3" sheetId="12" r:id="rId5"/>
     <sheet name="ch4" sheetId="4" r:id="rId6"/>
     <sheet name="ch5" sheetId="7" r:id="rId7"/>
-    <sheet name="ch6" sheetId="14" r:id="rId8"/>
-    <sheet name="ch7" sheetId="5" r:id="rId9"/>
-    <sheet name="ch8" sheetId="8" r:id="rId10"/>
-    <sheet name="ch9" sheetId="9" r:id="rId11"/>
+    <sheet name="ch6" sheetId="5" r:id="rId8"/>
+    <sheet name="ch7" sheetId="8" r:id="rId9"/>
+    <sheet name="ch8" sheetId="9" r:id="rId10"/>
+    <sheet name="ch9" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -4062,7 +4062,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRESTA-TEXT-2021 Win10 chap.7</t>
+    <t>(付録B) Microsoft Teamsの確認</t>
+    <rPh sb="1" eb="3">
+      <t>フロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4483,7 +4489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4555,96 +4561,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D1BFF-FF5C-4A7E-8C9C-E750AF0FFFAF}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -4799,6 +4715,431 @@
       <c r="B17" s="1" t="s">
         <v>145</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB449D4-AFC1-462F-B851-41C4675E501D}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="D50" ph="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="D53" ph="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6442,436 +6783,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB449D4-AFC1-462F-B851-41C4675E501D}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C23" t="s">
-        <v>276</v>
-      </c>
-      <c r="D23" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="D50" ph="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="D53" ph="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6911,7 +6827,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7056,6 +6972,96 @@
       </c>
       <c r="D17" t="s">
         <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF861C4-7DD5-4772-9CB0-1B1CAB37A37A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB66732C-82F4-44EB-BA4A-E1485B98CFCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4062,11 +4062,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(付録B) Microsoft Teamsの確認</t>
+    <t>（付録B）Microsoft Teamsの確認</t>
     <rPh sb="1" eb="3">
       <t>フロク</t>
     </rPh>
-    <rPh sb="22" eb="24">
+    <rPh sb="21" eb="23">
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB66732C-82F4-44EB-BA4A-E1485B98CFCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68488DA-3141-4F48-BA8A-71F61FB45112}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="306">
   <si>
     <t>header1</t>
   </si>
@@ -217,13 +217,6 @@
   </si>
   <si>
     <t>win10-6-27.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最初の一回だけ、使用言語とタイムゾーンを選ぶ画面が出ます。通常は「日本語」と「UTC+9」を選んでおけば良いでしょう。 
-  </t>
-  </si>
-  <si>
-    <t>win10-6-06.svg</t>
   </si>
   <si>
     <t>win10-6-07.svg</t>
@@ -4506,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4522,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4530,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4544,7 +4537,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4581,7 +4574,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4589,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4605,7 +4598,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4613,7 +4606,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4629,15 +4622,15 @@
     </row>
     <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4645,13 +4638,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4659,37 +4652,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4697,23 +4690,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4727,7 +4720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB449D4-AFC1-462F-B851-41C4675E501D}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4744,7 +4737,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4752,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4768,7 +4761,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4776,7 +4769,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4790,7 +4783,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4800,13 +4793,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4814,24 +4807,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4839,13 +4832,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4853,24 +4846,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4878,51 +4871,51 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4930,13 +4923,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4944,24 +4937,24 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4969,13 +4962,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4983,35 +4976,35 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5019,13 +5012,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5033,18 +5026,18 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5170,7 +5163,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -5194,7 +5187,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -5202,7 +5195,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -5222,7 +5215,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -5230,13 +5223,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -5244,21 +5237,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5266,13 +5259,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -5280,29 +5273,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5310,13 +5303,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -5324,13 +5317,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -5338,21 +5331,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5360,13 +5353,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5374,21 +5367,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -5396,13 +5389,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -5410,24 +5403,24 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5435,13 +5428,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s" ph="1">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5472,7 +5465,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5496,7 +5489,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5504,7 +5497,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5518,7 +5511,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -5532,7 +5525,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -5546,7 +5539,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -5560,7 +5553,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5574,7 +5567,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5588,7 +5581,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -5602,7 +5595,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5616,7 +5609,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -5630,7 +5623,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5667,7 +5660,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5675,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5691,7 +5684,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5699,7 +5692,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5752,7 +5745,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5760,13 +5753,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5793,13 +5786,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5807,13 +5800,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -5821,7 +5814,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5835,7 +5828,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -5849,13 +5842,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5863,13 +5856,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5900,7 +5893,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5908,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5924,7 +5917,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5932,7 +5925,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5948,44 +5941,44 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
         <v>142</v>
-      </c>
-      <c r="D11" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5993,13 +5986,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6007,7 +6000,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -6044,7 +6037,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6052,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6068,7 +6061,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6076,7 +6069,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6092,7 +6085,7 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -6100,7 +6093,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -6111,7 +6104,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6119,7 +6112,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -6130,10 +6123,10 @@
     </row>
     <row r="12" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6141,13 +6134,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6155,13 +6148,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6169,13 +6162,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>236</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6183,7 +6176,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -6197,13 +6190,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6215,10 +6208,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B34" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6242,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6258,7 +6251,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -6266,7 +6259,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6360,21 +6353,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6382,13 +6375,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6405,26 +6398,26 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>58</v>
       </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -6433,7 +6426,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -6447,59 +6440,59 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -6508,40 +6501,40 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -6555,7 +6548,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -6566,49 +6559,49 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>76</v>
       </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6616,13 +6609,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>297</v>
+        <v>185</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6630,13 +6623,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>187</v>
+        <v>297</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6644,136 +6637,122 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>299</v>
+        <v>180</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
       <c r="D38" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D39" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
       <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D44" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D45" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="D47" ph="1"/>
+    <row r="46" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="D46" ph="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6827,17 +6806,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6845,7 +6824,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6859,7 +6838,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -6873,7 +6852,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -6887,7 +6866,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -6915,7 +6894,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6929,7 +6908,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -6940,10 +6919,10 @@
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6951,7 +6930,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -6965,7 +6944,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -6999,10 +6978,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7010,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7026,7 +7005,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7034,7 +7013,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7045,12 +7024,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68488DA-3141-4F48-BA8A-71F61FB45112}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690C1B87-F5E5-4DF9-A88B-709ED26B4B39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6210,8 +6210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690C1B87-F5E5-4DF9-A88B-709ED26B4B39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F82DBA9-26C7-4180-A14E-F0659B1D93E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="304">
   <si>
     <t>header1</t>
   </si>
@@ -525,14 +525,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>win10-6-28.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-05.svg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Hiroshima Universityと書かれた画面に移動しますので、広大パスワードを入力し「サインイン」をクリックします。
 </t>
     <phoneticPr fontId="1"/>
@@ -828,10 +820,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（付録A）Officeのダウンロード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ここでは、まだOfficeがインストールされていないPCに広島大学の提供するOffice365ProPlusをダウンロードしてインストールする方法を説明します。</t>
     <rPh sb="29" eb="31">
       <t>ヒロシマ</t>
@@ -847,22 +835,6 @@
     </rPh>
     <rPh sb="74" eb="76">
       <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生個人所有のPCにMicrosoft Office をダウンロードする方法</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ホウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4062,6 +4034,26 @@
     <rPh sb="21" eb="23">
       <t>カクニン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生個人所有のPCにMicrosoft Office をインストールする方法</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（付録A）Officeのインストール</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4499,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4515,7 +4507,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4523,7 +4515,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4537,7 +4529,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4557,8 +4549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D1BFF-FF5C-4A7E-8C9C-E750AF0FFFAF}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4574,7 +4566,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4582,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4598,7 +4590,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4606,7 +4598,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4622,15 +4614,15 @@
     </row>
     <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4638,13 +4630,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4652,29 +4644,29 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4682,7 +4674,7 @@
         <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4690,23 +4682,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4737,7 +4729,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4745,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4761,7 +4753,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4769,7 +4761,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4783,7 +4775,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4793,13 +4785,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4807,24 +4799,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4832,13 +4824,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4846,24 +4838,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4871,51 +4863,51 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4923,13 +4915,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4937,24 +4929,24 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C23" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D23" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4962,13 +4954,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4976,35 +4968,35 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5012,13 +5004,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5026,18 +5018,18 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5163,7 +5155,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -5187,7 +5179,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -5195,7 +5187,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -5215,7 +5207,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -5223,7 +5215,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
@@ -5237,13 +5229,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -5251,7 +5243,7 @@
         <v>105</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5265,7 +5257,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -5273,29 +5265,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5309,7 +5301,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -5317,13 +5309,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -5331,13 +5323,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -5345,7 +5337,7 @@
         <v>97</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5353,13 +5345,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5367,18 +5359,18 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D21" t="s" ph="1">
         <v>113</v>
@@ -5389,7 +5381,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
@@ -5403,24 +5395,24 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5428,7 +5420,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s" ph="1">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>9</v>
@@ -5465,7 +5457,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5489,7 +5481,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5497,7 +5489,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5525,7 +5517,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -5553,7 +5545,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5567,7 +5559,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5581,7 +5573,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -5623,7 +5615,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5660,7 +5652,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5668,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5684,7 +5676,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5692,7 +5684,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5800,7 +5792,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5814,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5842,7 +5834,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -5856,13 +5848,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5893,7 +5885,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5901,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5917,7 +5909,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5925,7 +5917,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5941,44 +5933,44 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" t="s">
         <v>140</v>
-      </c>
-      <c r="D11" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5986,13 +5978,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6037,7 +6029,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6045,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6061,7 +6053,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6069,7 +6061,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6085,7 +6077,7 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -6093,7 +6085,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -6104,7 +6096,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6112,7 +6104,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -6123,10 +6115,10 @@
     </row>
     <row r="12" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6134,7 +6126,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6154,7 +6146,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6162,13 +6154,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6190,7 +6182,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4</v>
@@ -6210,7 +6202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -6235,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6251,7 +6243,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -6259,7 +6251,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6353,13 +6345,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6367,7 +6359,7 @@
         <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6375,13 +6367,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6403,7 +6395,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -6478,7 +6470,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -6559,7 +6551,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6581,7 +6573,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -6595,13 +6587,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6609,13 +6601,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6623,13 +6615,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6637,13 +6629,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
@@ -6651,21 +6643,21 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -6731,10 +6723,10 @@
     </row>
     <row r="44" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D44" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6806,17 +6798,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6824,7 +6816,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6838,7 +6830,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -6852,7 +6844,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -6866,7 +6858,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -6894,7 +6886,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6919,7 +6911,7 @@
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
         <v>94</v>
@@ -6930,7 +6922,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -6944,7 +6936,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -6978,10 +6970,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7005,7 +6997,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7029,7 +7021,7 @@
     </row>
     <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F82DBA9-26C7-4180-A14E-F0659B1D93E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530DE785-D77D-4119-9351-C7B4C2695FC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="305">
   <si>
     <t>header1</t>
   </si>
@@ -4055,6 +4055,9 @@
   <si>
     <t>（付録A）Officeのインストール</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-hirodai-login.png</t>
   </si>
 </sst>
 </file>
@@ -4549,8 +4552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D1BFF-FF5C-4A7E-8C9C-E750AF0FFFAF}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6202,7 +6205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -6359,7 +6362,7 @@
         <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>186</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530DE785-D77D-4119-9351-C7B4C2695FC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA0C5F8-2326-4F44-B79A-C652AA6A8FCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="303">
   <si>
     <t>header1</t>
   </si>
@@ -263,12 +263,6 @@
     <t xml:space="preserve">&lt;h2&gt;&lt;a name="bb9"&gt;&lt;/a&gt;Bb9 (学習支援システム)&lt;/h2&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">ではもみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
-「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
-ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
-  </t>
-  </si>
-  <si>
     <t>win10-6-13.svg</t>
   </si>
   <si>
@@ -301,13 +295,6 @@
   <si>
     <t xml:space="preserve">以降は補足情報であり、講習会のときに設定しません。後日必要に応じて行ってください。
  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bb9を便利に利用できるスマホ用アプリもあります。iOSのApp StoreやAndroidのGoogle Playで&amp;quot;Blackboard&amp;quot;と検索してみてください。
-  </t>
-  </si>
-  <si>
-    <t>bb9-app.jpg</t>
   </si>
   <si>
     <t>win10-6-25.svg</t>
@@ -4058,6 +4045,13 @@
   </si>
   <si>
     <t>ch5-hirodai-login.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ではもみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
+「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
+ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
+(スマートフォン用のBb9モバイルアプリは4月下旬以降に提供できるよう、只今準備中です)  </t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4494,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4510,7 +4504,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4518,7 +4512,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4532,7 +4526,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4569,7 +4563,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4577,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4593,7 +4587,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4601,7 +4595,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4617,15 +4611,15 @@
     </row>
     <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4633,13 +4627,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4647,37 +4641,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4685,23 +4679,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4732,7 +4726,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4740,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4756,7 +4750,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4764,7 +4758,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4778,7 +4772,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4788,13 +4782,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4802,24 +4796,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4827,13 +4821,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4841,24 +4835,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4866,51 +4860,51 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4918,13 +4912,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4932,24 +4926,24 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4957,13 +4951,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4971,35 +4965,35 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5007,13 +5001,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5021,18 +5015,18 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5158,7 +5152,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -5182,7 +5176,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -5190,7 +5184,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -5210,7 +5204,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -5218,13 +5212,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D8" t="s" ph="1">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -5232,21 +5226,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s" ph="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5254,13 +5248,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s" ph="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -5268,29 +5262,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5298,13 +5292,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s" ph="1">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -5312,13 +5306,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -5326,21 +5320,21 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s" ph="1">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5348,13 +5342,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s" ph="1">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5362,21 +5356,21 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s" ph="1">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D21" t="s" ph="1">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -5384,13 +5378,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D22" t="s" ph="1">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -5398,24 +5392,24 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s" ph="1">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5423,13 +5417,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s" ph="1">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D25" t="s" ph="1">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -5460,7 +5454,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5484,7 +5478,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5492,7 +5486,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5506,7 +5500,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -5520,7 +5514,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -5534,7 +5528,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -5548,7 +5542,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5562,7 +5556,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5576,7 +5570,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -5590,7 +5584,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -5604,7 +5598,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -5618,7 +5612,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5655,7 +5649,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5663,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5679,7 +5673,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5687,7 +5681,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5740,7 +5734,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -5748,13 +5742,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -5781,13 +5775,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5795,13 +5789,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
@@ -5809,7 +5803,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5823,7 +5817,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -5837,13 +5831,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -5851,13 +5845,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5888,7 +5882,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5896,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5912,7 +5906,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5920,7 +5914,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5936,44 +5930,44 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5981,13 +5975,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5995,7 +5989,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -6032,7 +6026,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6040,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6056,7 +6050,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -6064,7 +6058,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6080,7 +6074,7 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -6088,7 +6082,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -6099,7 +6093,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6107,7 +6101,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -6118,10 +6112,10 @@
     </row>
     <row r="12" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6129,13 +6123,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6143,13 +6137,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6157,13 +6151,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6171,7 +6165,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -6185,13 +6179,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -6203,10 +6197,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6230,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6246,7 +6240,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -6254,7 +6248,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6348,21 +6342,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6370,13 +6364,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6398,7 +6392,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -6473,7 +6467,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -6520,13 +6514,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
         <v>70</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6534,13 +6528,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>72</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6548,13 +6542,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6562,13 +6556,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>75</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="184.8" x14ac:dyDescent="0.2">
@@ -6576,13 +6570,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6590,13 +6584,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6604,13 +6598,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6618,13 +6612,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6632,13 +6626,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
@@ -6646,26 +6640,26 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6673,7 +6667,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -6687,67 +6681,53 @@
         <v>4</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D43" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D44" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="D46" ph="1"/>
+    <row r="45" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="D45" ph="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6801,17 +6781,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6819,7 +6799,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6833,7 +6813,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -6847,7 +6827,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -6861,7 +6841,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -6889,7 +6869,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6903,7 +6883,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -6914,10 +6894,10 @@
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6925,7 +6905,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -6939,7 +6919,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -6973,10 +6953,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6984,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7000,7 +6980,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7008,7 +6988,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -7019,12 +6999,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA0C5F8-2326-4F44-B79A-C652AA6A8FCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CB961F-4198-4227-A190-FCA108875518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="304">
   <si>
     <t>header1</t>
   </si>
@@ -747,10 +747,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Microsoft Update を使って、Windows と Office がつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-2-42.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1866,15 +1862,6 @@
   </si>
   <si>
     <t>Google Chromeのインストール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Officeのインストールとアクティベーションを行います。
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#office"&gt;Microsoft Officeのアクティベーション&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
- </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1999,24 +1986,6 @@
     </rPh>
     <rPh sb="191" eb="192">
       <t>カマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Update を使って、WindowsとOfficeがつねに最新版で使えるように設定します。
-さらに、Defenderでのフルスキャン（全てのファイルに対するウィルスチェック）のやり方を確認しておきます。
-&lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;Windows Updateの設定&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#defender"&gt;Defenderの手動更新とフルスキャン&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
-この章は、インターネットに接続していれば、広島大学の学生証をもらう前に実施することができます。 
- </t>
-    <rPh sb="240" eb="242">
-      <t>ジタク</t>
-    </rPh>
-    <rPh sb="251" eb="253">
-      <t>セツゾク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4051,6 +4020,81 @@
 「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
 ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
 (スマートフォン用のBb9モバイルアプリは4月下旬以降に提供できるよう、只今準備中です)  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft Update を使って、Windowsがつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この章では、ネットワーク接続環境が必要になります。自宅にネットワーク環境がある場合はそれに接続します。もし、無い場合は、「自宅ネットワークなし自習形式」のテキストをご参照ください。</t>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows Update を使って、Windowsとウィルス対策ソフトがつねに最新版で使えるように設定します。
+さらに、Defenderでのフルスキャン（全てのファイルに対するウィルスチェック）のやり方を確認しておきます。
+&lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;Windows Updateの設定&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#defender"&gt;Defenderの手動更新とフルスキャン&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;
+この章は、インターネットに接続していれば、広島大学の学生証をもらう前に実施することができます。 
+ </t>
+    <rPh sb="32" eb="34">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="254" eb="256">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以降の章では、ネットワーク接続環境と、学生番号および学生番号と一緒に入手したパスワードが必要になります。もし、無い場合は、「自宅ネットワークなし自習形式」のテキストをご参照ください。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4488,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4504,7 +4548,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4512,7 +4556,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4526,7 +4570,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4563,7 +4607,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4571,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4587,7 +4631,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4595,7 +4639,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4611,15 +4655,15 @@
     </row>
     <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4627,13 +4671,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4641,29 +4685,29 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
         <v>158</v>
-      </c>
-      <c r="D13" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4671,7 +4715,7 @@
         <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4685,17 +4729,17 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4726,7 +4770,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4734,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4750,7 +4794,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4758,7 +4802,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4772,7 +4816,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4782,13 +4826,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4796,24 +4840,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4821,13 +4865,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4835,24 +4879,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4860,51 +4904,51 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4912,13 +4956,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4926,24 +4970,24 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D23" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4951,13 +4995,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4965,35 +5009,35 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5001,13 +5045,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5015,18 +5059,18 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5152,7 +5196,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -5176,7 +5220,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -5184,7 +5228,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -5204,7 +5248,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -5212,7 +5256,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
@@ -5226,13 +5270,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -5240,7 +5284,7 @@
         <v>102</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5254,7 +5298,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -5262,29 +5306,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5298,7 +5342,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -5306,13 +5350,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -5320,13 +5364,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -5334,7 +5378,7 @@
         <v>94</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5348,7 +5392,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5362,12 +5406,12 @@
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D21" t="s" ph="1">
         <v>110</v>
@@ -5378,7 +5422,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
@@ -5398,18 +5442,18 @@
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5454,7 +5498,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5478,7 +5522,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5486,7 +5530,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5630,10 +5674,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A19" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5649,7 +5693,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5657,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5673,40 +5717,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
       <c r="B7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5714,13 +5749,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5728,130 +5763,144 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="16" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="17" spans="1:4" ht="145.19999999999999" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="19" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>150</v>
+    <row r="20" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5882,7 +5931,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5890,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5906,7 +5955,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5914,7 +5963,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5930,12 +5979,12 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5943,7 +5992,7 @@
         <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5951,23 +6000,23 @@
         <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5981,7 +6030,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6009,8 +6058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6026,7 +6075,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6034,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6050,15 +6099,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6074,7 +6123,7 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -6082,7 +6131,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -6093,7 +6142,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6101,7 +6150,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -6112,7 +6161,7 @@
     </row>
     <row r="12" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D12" t="s">
         <v>117</v>
@@ -6123,7 +6172,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6143,7 +6192,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6151,13 +6200,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6179,7 +6228,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4</v>
@@ -6199,7 +6248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
@@ -6224,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6240,7 +6289,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -6248,7 +6297,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6342,13 +6391,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6356,7 +6405,7 @@
         <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6370,7 +6419,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6392,7 +6441,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -6467,7 +6516,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -6514,7 +6563,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -6548,7 +6597,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6570,7 +6619,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -6584,13 +6633,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6598,13 +6647,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6612,13 +6661,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6626,13 +6675,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
@@ -6640,21 +6689,21 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -6706,10 +6755,10 @@
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D43" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6781,17 +6830,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6813,7 +6862,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -6869,7 +6918,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6953,10 +7002,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6980,7 +7029,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7004,7 +7053,7 @@
     </row>
     <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CB961F-4198-4227-A190-FCA108875518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83FF614-29A9-4F4E-8175-AA18E69A257A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -584,16 +584,6 @@
     <rPh sb="455" eb="457">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">最後にバッテリー駆動時間を確認しましょう。
-画面下のタスクバーのバッテリーアイコンをクリックしてください。すると、バッテリー残量がパーセント表示され、およそあと何時間利用できるかの推定値が表示されます。
-100%充電時のここの残り時間表示が、あなたのPCのバッテリー駆動時間の推定値ということになります。（例：80%で「残り6時間」であれば、6÷0.8=7.5なので、バッテリー駆動時間は7.5時間）
-&lt;div class="spl"&gt;※ 残り時間は、システム起動後ある程度時間が経過し、しかも使用状況が安定した状態でないと表示されないようです。
-時間を置いて何度か試してみても表示されないようであれば、カタログなどで仕様を確認してください。
- &lt;/div&gt;
-  </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4095,6 +4085,16 @@
   </si>
   <si>
     <t>以降の章では、ネットワーク接続環境と、学生番号および学生番号と一緒に入手したパスワードが必要になります。もし、無い場合は、「自宅ネットワークなし自習形式」のテキストをご参照ください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最後にバッテリー駆動時間を確認しましょう。
+画面下のタスクバーのバッテリーアイコンをクリックしてください。すると、バッテリー残量がパーセント表示され、およそあと何時間利用できるかの推定値が表示されます。
+100%充電時のここの残り時間表示が、あなたのPCのバッテリー駆動時間の推定値ということになります。（例：80%で「残り6時間」であれば、6÷0.8=7.5なので、バッテリー駆動時間は7.5時間）
+&lt;div class="spl"&gt;※ 残り時間は、システム起動後ある程度時間が経過し、しかも使用状況が安定した状態でないと表示されないようです。
+時間を置いて何度か試してみても表示されないようであれば、カタログなどで仕様を確認してください。
+ &lt;/div&gt;
+以降の手順はネットワークにつないで行っても大丈夫です。  </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4548,7 +4548,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4556,7 +4556,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4570,7 +4570,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4607,7 +4607,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4631,7 +4631,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4639,7 +4639,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4655,15 +4655,15 @@
     </row>
     <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4671,13 +4671,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4685,29 +4685,29 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" t="s">
         <v>157</v>
-      </c>
-      <c r="D13" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4715,7 +4715,7 @@
         <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4729,17 +4729,17 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4770,7 +4770,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4778,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4794,7 +4794,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4802,7 +4802,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4816,7 +4816,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4826,13 +4826,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4840,24 +4840,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4865,13 +4865,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4879,24 +4879,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4904,51 +4904,51 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4956,13 +4956,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4970,24 +4970,24 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4995,13 +4995,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5009,35 +5009,35 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5045,13 +5045,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5059,18 +5059,18 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5196,7 +5196,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s" ph="1">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -5220,7 +5220,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s" ph="1">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="81" customHeight="1" ph="1" x14ac:dyDescent="0.2">
@@ -5228,7 +5228,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -5248,7 +5248,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -5256,7 +5256,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
@@ -5270,13 +5270,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -5284,7 +5284,7 @@
         <v>102</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5298,7 +5298,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -5306,29 +5306,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s" ph="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s" ph="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5342,7 +5342,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -5350,13 +5350,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s" ph="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -5364,13 +5364,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s" ph="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -5378,7 +5378,7 @@
         <v>94</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5392,7 +5392,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5406,12 +5406,12 @@
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D21" t="s" ph="1">
         <v>110</v>
@@ -5422,7 +5422,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
@@ -5442,18 +5442,18 @@
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5481,8 +5481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5498,7 +5498,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5522,7 +5522,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5530,7 +5530,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5586,7 +5586,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5600,7 +5600,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -5614,7 +5614,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -5656,7 +5656,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -5676,7 +5676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5693,7 +5693,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5717,12 +5717,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5730,7 +5730,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -5838,7 +5838,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -5852,7 +5852,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -5880,7 +5880,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -5894,13 +5894,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -5931,7 +5931,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5939,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5955,7 +5955,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5963,7 +5963,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5979,44 +5979,44 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" t="s">
         <v>135</v>
-      </c>
-      <c r="D11" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6024,13 +6024,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6058,7 +6058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6075,7 +6075,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6099,7 +6099,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6107,7 +6107,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6123,7 +6123,7 @@
     </row>
     <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -6131,7 +6131,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6150,7 +6150,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -6161,7 +6161,7 @@
     </row>
     <row r="12" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D12" t="s">
         <v>117</v>
@@ -6172,7 +6172,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6192,7 +6192,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6200,13 +6200,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6228,7 +6228,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4</v>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6289,7 +6289,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -6297,7 +6297,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6391,13 +6391,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6405,7 +6405,7 @@
         <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6419,7 +6419,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6441,7 +6441,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -6516,7 +6516,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -6563,7 +6563,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -6597,7 +6597,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6619,7 +6619,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -6633,13 +6633,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6647,13 +6647,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6661,13 +6661,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -6675,13 +6675,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="158.4" x14ac:dyDescent="0.2">
@@ -6689,21 +6689,21 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -6755,10 +6755,10 @@
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D43" t="s">
         <v>280</v>
-      </c>
-      <c r="D43" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6830,17 +6830,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -6848,7 +6848,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6862,7 +6862,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -6876,7 +6876,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -6890,7 +6890,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -6918,7 +6918,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s">
         <v>91</v>
@@ -6954,7 +6954,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -6968,7 +6968,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -7002,10 +7002,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7029,7 +7029,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7053,7 +7053,7 @@
     </row>
     <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83FF614-29A9-4F4E-8175-AA18E69A257A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD18220C-88A6-413E-A384-1062B1045F50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -4006,13 +4006,6 @@
     <t>ch5-hirodai-login.png</t>
   </si>
   <si>
-    <t xml:space="preserve">ではもみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
-「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
-ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
-(スマートフォン用のBb9モバイルアプリは4月下旬以降に提供できるよう、只今準備中です)  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Microsoft Update を使って、Windowsがつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4095,6 +4088,13 @@
 時間を置いて何度か試してみても表示されないようであれば、カタログなどで仕様を確認してください。
  &lt;/div&gt;
 以降の手順はネットワークにつないで行っても大丈夫です。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">以下の手順はBb9 が利用可能になる4/2 以降に実施してください。もみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
+「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
+ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
+(スマートフォン用のBb9モバイルアプリは4月下旬以降に提供できるよう、只今準備中です)  </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5586,7 +5586,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5676,7 +5676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5693,7 +5693,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5722,7 +5722,7 @@
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5730,7 +5730,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -6107,7 +6107,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6248,8 +6248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6558,12 +6558,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD18220C-88A6-413E-A384-1062B1045F50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCB105E-BEE2-4D61-9722-CE7AFDB964A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -4010,52 +4010,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この章では、ネットワーク接続環境が必要になります。自宅にネットワーク環境がある場合はそれに接続します。もし、無い場合は、「自宅ネットワークなし自習形式」のテキストをご参照ください。</t>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジタク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ジタク</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ジシュウ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Windows Update を使って、Windowsとウィルス対策ソフトがつねに最新版で使えるように設定します。
 さらに、Defenderでのフルスキャン（全てのファイルに対するウィルスチェック）のやり方を確認しておきます。
 &lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;Windows Updateの設定&lt;/a&gt;
@@ -4091,10 +4045,56 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">以下の手順はBb9 が利用可能になる4/2 以降に実施してください。もみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
+    <t xml:space="preserve">もみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
 「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
 ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
 (スマートフォン用のBb9モバイルアプリは4月下旬以降に提供できるよう、只今準備中です)  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この章では、ネットワーク接続環境が必要になります。自宅にネットワーク環境がある場合はそれに接続します。もし、無い場合は、「自宅ネットワークなし自習形式」のテキストをご参照ください。以下の手順はアカウントに関連したサービスが全て利用可能になる4/2 以降に実施してください。</t>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>サンショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5586,7 +5586,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5676,8 +5676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5720,9 +5720,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5730,7 +5730,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -6107,7 +6107,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6248,7 +6248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -6558,12 +6558,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_03\初期講習会\fresta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_04\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCB105E-BEE2-4D61-9722-CE7AFDB964A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ABA59A-59E6-4D81-AD47-645FF8B39D02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -1980,32 +1980,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>まず広大アカウント(@hiroshima-u.ac.jpを含め)を入力します。</t>
-    <rPh sb="2" eb="4">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次に広大アカウントのパスワードを入力します。</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>このPCを組織が管理できるようにしますか、と質問されますが、このチェックを外し、「このアプリのみにサインインする」を選びましょう。</t>
     <rPh sb="5" eb="7">
       <t>ソシキ</t>
@@ -2582,34 +2556,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>はじめてTeamsを起動すると、Microsoft Officeのアクティベーションと同様のサインインを促されます。広島大学のオンライン授業を受けるには、広大アカウントでサインインが必要です。</t>
-    <rPh sb="10" eb="12">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ウナガ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>ヒツヨウダイガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ch7-teams-start0.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3379,45 +3325,6 @@
     </rPh>
     <rPh sb="97" eb="98">
       <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャネルの中では、基本的なコミュニケーション方法としてチャットが使われるようになっています。チームの中でチャットした場合には、同じチームに所属する皆さんに見えます。左側のメニューにある「チャット」は、貴方がチャットで入力したことがあるチャネルの一覧が出てくるので、「あるチャネルで会話している最中に、他のチャネルで自分の発言に返事があった」ということに気づくこともできます。
-基本的に授業関係のテキストチャットは自分の都合のよい時間に発言してよいのですが、返事もまた相手の都合のよい時間に返ってくるものなので、即答を求めないようにしましょう。
-このチャット機能は、同じチームに所属してない人とも使うことができます。ただし、広大アカウントを持っている人が対象です。相手のアカウントを教えてもらったら、「新しいチャット」で質問することができます。</t>
-    <rPh sb="5" eb="6">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>ミナ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>ヘンジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4094,6 +4001,90 @@
     </rPh>
     <rPh sb="83" eb="85">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はじめてTeamsを起動すると、Microsoft Officeのアクティベーションと同様のサインインを促されます。広島大学のオンライン授業を受けるには、アカウント名でサインインが必要です。</t>
+    <rPh sb="10" eb="12">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ヒツヨウダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずアカウント名(@hiroshima-u.ac.jpを含め)を入力します。</t>
+    <rPh sb="28" eb="29">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次にアカウント名のパスワードを入力します。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャネルの中では、基本的なコミュニケーション方法としてチャットが使われるようになっています。チームの中でチャットした場合には、同じチームに所属する皆さんに見えます。左側のメニューにある「チャット」は、貴方がチャットで入力したことがあるチャネルの一覧が出てくるので、「あるチャネルで会話している最中に、他のチャネルで自分の発言に返事があった」ということに気づくこともできます。
+基本的に授業関係のテキストチャットは自分の都合のよい時間に発言してよいのですが、返事もまた相手の都合のよい時間に返ってくるものなので、即答を求めないようにしましょう。
+このチャット機能は、同じチームに所属してない人とも使うことができます。ただし、アカウント名を持っている人が対象です。相手のアカウントを教えてもらったら、「新しいチャット」で質問することができます。</t>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ヘンジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4532,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4548,7 +4539,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4556,7 +4547,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4607,7 +4598,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4615,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4631,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4655,7 +4646,7 @@
     </row>
     <row r="8" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
         <v>139</v>
@@ -4671,7 +4662,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -4729,7 +4720,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4753,8 +4744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB449D4-AFC1-462F-B851-41C4675E501D}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4770,7 +4761,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4778,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4794,7 +4785,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4802,7 +4793,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -4816,7 +4807,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4826,13 +4817,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4840,24 +4831,24 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>197</v>
+        <v>301</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4865,13 +4856,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>198</v>
+        <v>302</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4879,24 +4870,24 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4904,51 +4895,51 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
@@ -4956,13 +4947,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -4970,24 +4961,24 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="C23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="79.2" x14ac:dyDescent="0.2">
@@ -4995,13 +4986,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -5009,35 +5000,35 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -5045,13 +5036,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -5059,18 +5050,18 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5228,7 +5219,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s" ph="1">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s" ph="1">
         <v>4</v>
@@ -5248,7 +5239,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" ph="1">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -5256,7 +5247,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s" ph="1">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C8" t="s" ph="1">
         <v>9</v>
@@ -5270,13 +5261,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s" ph="1">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D9" t="s" ph="1">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.2" ph="1" x14ac:dyDescent="0.2">
@@ -5284,7 +5275,7 @@
         <v>102</v>
       </c>
       <c r="D10" t="s" ph="1">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5298,7 +5289,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s" ph="1">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="142.80000000000001" ph="1" x14ac:dyDescent="0.2">
@@ -5312,7 +5303,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s" ph="1">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -5320,15 +5311,15 @@
         <v>170</v>
       </c>
       <c r="D13" t="s" ph="1">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s" ph="1">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D14" t="s" ph="1">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5342,7 +5333,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s" ph="1">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="102" ph="1" x14ac:dyDescent="0.2">
@@ -5356,7 +5347,7 @@
         <v>9</v>
       </c>
       <c r="D16" t="s" ph="1">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="81.599999999999994" ph="1" x14ac:dyDescent="0.2">
@@ -5370,7 +5361,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s" ph="1">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:4" ph="1" x14ac:dyDescent="0.2">
@@ -5378,7 +5369,7 @@
         <v>94</v>
       </c>
       <c r="D18" t="s" ph="1">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="122.4" ph="1" x14ac:dyDescent="0.2">
@@ -5392,7 +5383,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s" ph="1">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5406,12 +5397,12 @@
         <v>9</v>
       </c>
       <c r="D20" t="s" ph="1">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s" ph="1">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D21" t="s" ph="1">
         <v>110</v>
@@ -5422,7 +5413,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s" ph="1">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C22" t="s" ph="1">
         <v>9</v>
@@ -5442,18 +5433,18 @@
         <v>9</v>
       </c>
       <c r="D23" t="s" ph="1">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:4" ph="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s" ph="1">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s" ph="1">
         <v>9</v>
       </c>
       <c r="D24" t="s" ph="1">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.799999999999997" ph="1" x14ac:dyDescent="0.2">
@@ -5522,7 +5513,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5586,7 +5577,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5676,7 +5667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5693,7 +5684,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5717,12 +5708,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5730,7 +5721,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -5955,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -5963,7 +5954,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -5979,7 +5970,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6083,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6107,7 +6098,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6142,7 +6133,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105.6" x14ac:dyDescent="0.2">
@@ -6150,7 +6141,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -6161,7 +6152,7 @@
     </row>
     <row r="12" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D12" t="s">
         <v>117</v>
@@ -6192,7 +6183,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6200,13 +6191,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>223</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6289,7 +6280,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -6391,13 +6382,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6405,7 +6396,7 @@
         <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6419,7 +6410,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6563,7 +6554,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -6597,7 +6588,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6633,7 +6624,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -6661,7 +6652,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -6755,10 +6746,10 @@
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D43" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6830,17 +6821,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -7005,7 +6996,7 @@
         <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7029,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7053,7 +7044,7 @@
     </row>
     <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_04\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ABA59A-59E6-4D81-AD47-645FF8B39D02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EF9FAF-53ED-431B-B5E8-3AF9850F098D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -3576,15 +3576,493 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>OneDriveはwebブラウザ経由で利用するのが安全ですが、時々ブラウザ外で動くOneDriveの同期用アプリがサインインを促してくることがあります。これを無視してもwebブラウザ経由で使うことができます。この同期アプリはWindowsの場合は元の状態に戻しづらい変更を加えるので、実験用のアカウントを作るなど、PCに十分慣れてからお試しください。</t>
+    <rPh sb="16" eb="18">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トキドキ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="142" eb="145">
+      <t>ジッケンヨウ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OneDriveNative-signin.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この他の使い方などは、メディアセンターに解説ページがありますので、ご参照ください。
+&lt;a href="https://www.media.hiroshima-u.ac.jp/services/microsoft365/teams/"&gt;https://www.media.hiroshima-u.ac.jp/services/microsoft365/teams/&lt;/a&gt;</t>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bb9-login.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>office365-portal.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bb9で配布されている教材をダウンロードできることを確認するため、「ノートパソコン点検届」のコースをみてみましょう。
+まず、コース一覧から「ノートパソコン点検届2021」をクリックしてコースを開きましょう。(画面は2020年度のものを示していますので、ご注意ください)
+  </t>
+    <rPh sb="41" eb="43">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">portal.office.comへのリンクをクリックしてください。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このようにPDFファイルの内容が表示されます。使っているソフト（「環境」といったりしますね）によっては、画面に直接表示されない場合もあります。そのときは、「ここをクリックして〇〇を開いてください」をクリックします。(ここでは2020年度のPDFを示しています)
+  </t>
+    <rPh sb="116" eb="118">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teamsの画面を閉じていても、サインインしている状態では、ネットワークに接続していれば、他の人には「連絡可能」な状態として見えています。Teamsの自分のアイコンをクリックして出るメニューからサインアウトすることができます。サインアウトすると通知アイコンも無くなり、チャットで話しかけられても何も通知されなくなります。ただし、Microsoftのサーバ側ではこの間に貴方に話しかけられたチャットが記録されており、再度サインインすると過去の未読のメッセージを読むことができます。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>ハナシ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>アナタ</t>
+    </rPh>
+    <rPh sb="189" eb="190">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>ミドク</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下は付録としての情報です。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;Widows10編&lt;/h3&gt;
+2021年3月&lt;br&gt;
+ 広島大学 情報メディア教育研究センター&lt;br&gt;
+ 広島大学 消費生活協同組合 
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10 chap.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10 chap.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRESTA-TEXT-2021 Win10 chap.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（付録B）Microsoft Teamsの確認</t>
+    <rPh sb="1" eb="3">
+      <t>フロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生個人所有のPCにMicrosoft Office をインストールする方法</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（付録A）Officeのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5-hirodai-login.png</t>
+  </si>
+  <si>
+    <t>Microsoft Update を使って、Windowsがつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows Update を使って、Windowsとウィルス対策ソフトがつねに最新版で使えるように設定します。
+さらに、Defenderでのフルスキャン（全てのファイルに対するウィルスチェック）のやり方を確認しておきます。
+&lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;Windows Updateの設定&lt;/a&gt;
+&lt;/li&gt;
+&lt;li&gt;&lt;a href="#defender"&gt;Defenderの手動更新とフルスキャン&lt;/a&gt;
+&lt;/li&gt;
+ &lt;/ul&gt;
+この章は、インターネットに接続していれば、広島大学の学生証をもらう前に実施することができます。 
+ </t>
+    <rPh sb="32" eb="34">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="254" eb="256">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以降の章では、ネットワーク接続環境と、学生番号および学生番号と一緒に入手したパスワードが必要になります。もし、無い場合は、「自宅ネットワークなし自習形式」のテキストをご参照ください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最後にバッテリー駆動時間を確認しましょう。
+画面下のタスクバーのバッテリーアイコンをクリックしてください。すると、バッテリー残量がパーセント表示され、およそあと何時間利用できるかの推定値が表示されます。
+100%充電時のここの残り時間表示が、あなたのPCのバッテリー駆動時間の推定値ということになります。（例：80%で「残り6時間」であれば、6÷0.8=7.5なので、バッテリー駆動時間は7.5時間）
+&lt;div class="spl"&gt;※ 残り時間は、システム起動後ある程度時間が経過し、しかも使用状況が安定した状態でないと表示されないようです。
+時間を置いて何度か試してみても表示されないようであれば、カタログなどで仕様を確認してください。
+ &lt;/div&gt;
+以降の手順はネットワークにつないで行っても大丈夫です。  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">もみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
+「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
+ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
+(スマートフォン用のBb9モバイルアプリは4月下旬以降に提供できるよう、只今準備中です)  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この章では、ネットワーク接続環境が必要になります。自宅にネットワーク環境がある場合はそれに接続します。もし、無い場合は、「自宅ネットワークなし自習形式」のテキストをご参照ください。以下の手順はアカウントに関連したサービスが全て利用可能になる4/2 以降に実施してください。</t>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はじめてTeamsを起動すると、Microsoft Officeのアクティベーションと同様のサインインを促されます。広島大学のオンライン授業を受けるには、アカウント名でサインインが必要です。</t>
+    <rPh sb="10" eb="12">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ヒツヨウダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずアカウント名(@hiroshima-u.ac.jpを含め)を入力します。</t>
+    <rPh sb="28" eb="29">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次にアカウント名のパスワードを入力します。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャネルの中では、基本的なコミュニケーション方法としてチャットが使われるようになっています。チームの中でチャットした場合には、同じチームに所属する皆さんに見えます。左側のメニューにある「チャット」は、貴方がチャットで入力したことがあるチャネルの一覧が出てくるので、「あるチャネルで会話している最中に、他のチャネルで自分の発言に返事があった」ということに気づくこともできます。
+基本的に授業関係のテキストチャットは自分の都合のよい時間に発言してよいのですが、返事もまた相手の都合のよい時間に返ってくるものなので、即答を求めないようにしましょう。
+このチャット機能は、同じチームに所属してない人とも使うことができます。ただし、アカウント名を持っている人が対象です。相手のアカウントを教えてもらったら、「新しいチャット」で質問することができます。</t>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ミナ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ヘンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>必携PCの設定・点検についてわからないことや困ったことがあったら、下記窓口に相談してください。
 &lt;dl&gt;
 &lt;dt&gt;対面窓口:&lt;/dt&gt;
 &lt;dd&gt;
   初期講習会会場（日時場所は次のWebページ内） &lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;
   &lt;ul&gt;
-  &lt;li&gt;（4/4 12:30～15:30, 4/5 9:00～17:00）メディアセンター本館特設会場&lt;/li&gt; 
+  &lt;li&gt;（4/5～7 9:00～17:00）メディアセンター本館特設会場&lt;/li&gt; 
   &lt;li&gt;（平日 8:45～16:45）メディアセンター本館、東分室（東図書館内）、サービスデスク（西図書館内、中央図書館内）、霞分室（基礎講義棟1F） &lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt; アクセスマップ&lt;/a&gt;&lt;/li&gt;
-  &lt;li&gt;（4/4～5 10:00～19:00、平日 10:00～17:00）広島大学生協新入生サポートセンター&lt;/li&gt;
+  &lt;li&gt;（4/5～7 10:00～19:00、平日 10:00～17:00）広島大学生協新入生サポートセンター&lt;/li&gt;
   &lt;/ul&gt;
 &lt;/dd&gt;
 &lt;dt&gt;Web質問窓口: &lt;/dt&gt;
@@ -3607,484 +4085,6 @@
 &lt;/dl&gt;</t>
     <rPh sb="88" eb="89">
       <t>ツギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OneDriveはwebブラウザ経由で利用するのが安全ですが、時々ブラウザ外で動くOneDriveの同期用アプリがサインインを促してくることがあります。これを無視してもwebブラウザ経由で使うことができます。この同期アプリはWindowsの場合は元の状態に戻しづらい変更を加えるので、実験用のアカウントを作るなど、PCに十分慣れてからお試しください。</t>
-    <rPh sb="16" eb="18">
-      <t>ケイユ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>アンゼン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>トキドキ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ドウキ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ウナガ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ムシ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>ケイユ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ドウキ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="123" eb="124">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="128" eb="129">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="136" eb="137">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="142" eb="145">
-      <t>ジッケンヨウ</t>
-    </rPh>
-    <rPh sb="152" eb="153">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>ジュウブン</t>
-    </rPh>
-    <rPh sb="162" eb="163">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>タメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OneDriveNative-signin.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>この他の使い方などは、メディアセンターに解説ページがありますので、ご参照ください。
-&lt;a href="https://www.media.hiroshima-u.ac.jp/services/microsoft365/teams/"&gt;https://www.media.hiroshima-u.ac.jp/services/microsoft365/teams/&lt;/a&gt;</t>
-    <rPh sb="2" eb="3">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bb9-login.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>office365-portal.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Bb9で配布されている教材をダウンロードできることを確認するため、「ノートパソコン点検届」のコースをみてみましょう。
-まず、コース一覧から「ノートパソコン点検届2021」をクリックしてコースを開きましょう。(画面は2020年度のものを示していますので、ご注意ください)
-  </t>
-    <rPh sb="41" eb="43">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>トドケ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>ネンド</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">portal.office.comへのリンクをクリックしてください。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">このようにPDFファイルの内容が表示されます。使っているソフト（「環境」といったりしますね）によっては、画面に直接表示されない場合もあります。そのときは、「ここをクリックして〇〇を開いてください」をクリックします。(ここでは2020年度のPDFを示しています)
-  </t>
-    <rPh sb="116" eb="118">
-      <t>ネンド</t>
-    </rPh>
-    <rPh sb="123" eb="124">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Teamsの画面を閉じていても、サインインしている状態では、ネットワークに接続していれば、他の人には「連絡可能」な状態として見えています。Teamsの自分のアイコンをクリックして出るメニューからサインアウトすることができます。サインアウトすると通知アイコンも無くなり、チャットで話しかけられても何も通知されなくなります。ただし、Microsoftのサーバ側ではこの間に貴方に話しかけられたチャットが記録されており、再度サインインすると過去の未読のメッセージを読むことができます。</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="131" eb="132">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="141" eb="142">
-      <t>ハナシ</t>
-    </rPh>
-    <rPh sb="149" eb="150">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="179" eb="180">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="184" eb="185">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="186" eb="188">
-      <t>アナタ</t>
-    </rPh>
-    <rPh sb="189" eb="190">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="201" eb="203">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="209" eb="211">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="219" eb="221">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="222" eb="224">
-      <t>ミドク</t>
-    </rPh>
-    <rPh sb="231" eb="232">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下は付録としての情報です。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>フロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;Widows10編&lt;/h3&gt;
-2021年3月&lt;br&gt;
- 広島大学 情報メディア教育研究センター&lt;br&gt;
- 広島大学 消費生活協同組合 
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win10 chap.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win10 chap.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRESTA-TEXT-2021 Win10 chap.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（付録B）Microsoft Teamsの確認</t>
-    <rPh sb="1" eb="3">
-      <t>フロク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生個人所有のPCにMicrosoft Office をインストールする方法</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショユウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（付録A）Officeのインストール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch5-hirodai-login.png</t>
-  </si>
-  <si>
-    <t>Microsoft Update を使って、Windowsがつねに最新版で使えるように設定します。またウィルス対策ソフトも自動アップデートで最新のウィルス防御機能を維持できるようにしておきます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Update を使って、Windowsとウィルス対策ソフトがつねに最新版で使えるように設定します。
-さらに、Defenderでのフルスキャン（全てのファイルに対するウィルスチェック）のやり方を確認しておきます。
-&lt;ul&gt;&lt;li&gt;&lt;a href="#windows_update"&gt;Windows Updateの設定&lt;/a&gt;
-&lt;/li&gt;
-&lt;li&gt;&lt;a href="#defender"&gt;Defenderの手動更新とフルスキャン&lt;/a&gt;
-&lt;/li&gt;
- &lt;/ul&gt;
-この章は、インターネットに接続していれば、広島大学の学生証をもらう前に実施することができます。 
- </t>
-    <rPh sb="32" eb="34">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="243" eb="245">
-      <t>ジタク</t>
-    </rPh>
-    <rPh sb="254" eb="256">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以降の章では、ネットワーク接続環境と、学生番号および学生番号と一緒に入手したパスワードが必要になります。もし、無い場合は、「自宅ネットワークなし自習形式」のテキストをご参照ください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">最後にバッテリー駆動時間を確認しましょう。
-画面下のタスクバーのバッテリーアイコンをクリックしてください。すると、バッテリー残量がパーセント表示され、およそあと何時間利用できるかの推定値が表示されます。
-100%充電時のここの残り時間表示が、あなたのPCのバッテリー駆動時間の推定値ということになります。（例：80%で「残り6時間」であれば、6÷0.8=7.5なので、バッテリー駆動時間は7.5時間）
-&lt;div class="spl"&gt;※ 残り時間は、システム起動後ある程度時間が経過し、しかも使用状況が安定した状態でないと表示されないようです。
-時間を置いて何度か試してみても表示されないようであれば、カタログなどで仕様を確認してください。
- &lt;/div&gt;
-以降の手順はネットワークにつないで行っても大丈夫です。  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">もみじTOPページに戻って、今度は「Bb9」のバナーをクリックしましょう。
-「Bb9」というのは、広島大学のオンライン学習支援システムの名前です。
-ここに授業で使う資料が掲載されたり、テストを受けたり、課題を提出したりすることがあります。
-(スマートフォン用のBb9モバイルアプリは4月下旬以降に提供できるよう、只今準備中です)  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>この章では、ネットワーク接続環境が必要になります。自宅にネットワーク環境がある場合はそれに接続します。もし、無い場合は、「自宅ネットワークなし自習形式」のテキストをご参照ください。以下の手順はアカウントに関連したサービスが全て利用可能になる4/2 以降に実施してください。</t>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジタク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ジタク</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ジシュウ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>はじめてTeamsを起動すると、Microsoft Officeのアクティベーションと同様のサインインを促されます。広島大学のオンライン授業を受けるには、アカウント名でサインインが必要です。</t>
-    <rPh sb="10" eb="12">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ウナガ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>ヒツヨウダイガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まずアカウント名(@hiroshima-u.ac.jpを含め)を入力します。</t>
-    <rPh sb="28" eb="29">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次にアカウント名のパスワードを入力します。</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャネルの中では、基本的なコミュニケーション方法としてチャットが使われるようになっています。チームの中でチャットした場合には、同じチームに所属する皆さんに見えます。左側のメニューにある「チャット」は、貴方がチャットで入力したことがあるチャネルの一覧が出てくるので、「あるチャネルで会話している最中に、他のチャネルで自分の発言に返事があった」ということに気づくこともできます。
-基本的に授業関係のテキストチャットは自分の都合のよい時間に発言してよいのですが、返事もまた相手の都合のよい時間に返ってくるものなので、即答を求めないようにしましょう。
-このチャット機能は、同じチームに所属してない人とも使うことができます。ただし、アカウント名を持っている人が対象です。相手のアカウントを教えてもらったら、「新しいチャット」で質問することができます。</t>
-    <rPh sb="5" eb="6">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>ミナ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>ヘンジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4539,7 +4539,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" x14ac:dyDescent="0.2">
@@ -4547,7 +4547,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4598,7 +4598,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4744,7 +4744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB449D4-AFC1-462F-B851-41C4675E501D}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4831,7 +4831,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -4856,7 +4856,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -4972,7 +4972,7 @@
     </row>
     <row r="23" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C23" t="s">
         <v>260</v>
@@ -5050,7 +5050,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="30" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5513,7 +5513,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5577,7 +5577,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5684,7 +5684,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5708,12 +5708,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5721,7 +5721,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -6098,7 +6098,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6280,7 +6280,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -6382,13 +6382,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6396,7 +6396,7 @@
         <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6554,7 +6554,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -6588,7 +6588,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
@@ -6624,7 +6624,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -6652,7 +6652,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -6746,10 +6746,10 @@
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D43" t="s">
         <v>275</v>
-      </c>
-      <c r="D43" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="92.4" x14ac:dyDescent="0.2">
@@ -6979,7 +6979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -7044,7 +7044,7 @@
     </row>
     <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_04\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EF9FAF-53ED-431B-B5E8-3AF9850F098D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A25A5D-5BAC-40AB-BC9A-D8AF5D7E2D31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4055,37 +4055,17 @@
   </si>
   <si>
     <t>必携PCの設定・点検についてわからないことや困ったことがあったら、下記窓口に相談してください。
-&lt;dl&gt;
-&lt;dt&gt;対面窓口:&lt;/dt&gt;
-&lt;dd&gt;
-  初期講習会会場（日時場所は次のWebページ内） &lt;a href="https://info.pre-entrance.hiroshima-u.ac.jp/"&gt;https://info.pre-entrance.hiroshima-u.ac.jp/&lt;/a&gt;
-  &lt;ul&gt;
-  &lt;li&gt;（4/5～7 9:00～17:00）メディアセンター本館特設会場&lt;/li&gt; 
-  &lt;li&gt;（平日 8:45～16:45）メディアセンター本館、東分室（東図書館内）、サービスデスク（西図書館内、中央図書館内）、霞分室（基礎講義棟1F） &lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt; アクセスマップ&lt;/a&gt;&lt;/li&gt;
-  &lt;li&gt;（4/5～7 10:00～19:00、平日 10:00～17:00）広島大学生協新入生サポートセンター&lt;/li&gt;
-  &lt;/ul&gt;
-&lt;/dd&gt;
-&lt;dt&gt;Web質問窓口: &lt;/dt&gt;
-&lt;dd&gt;
-  &lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;
-  https://www.media.hiroshima-u.ac.jp/helpdesk
-  &lt;/a&gt;
-&lt;/dd&gt;
-&lt;dt&gt;メール質問窓口: &lt;/dt&gt;
-&lt;dd&gt;
-  &lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;
-  st-pc@ml.hiroshima-u.ac.jp
-  &lt;/a&gt;
-&lt;/dd&gt;
-&lt;dt&gt;講習会(予定): &lt;/dt&gt;
-&lt;dd&gt;
-  情報メディア教育研究センターでは、皆さんの必携PCをより活用してもらえるよう、F3S (First Three Steps) 講習会を予定しています。  新型肺炎の情勢のため、どのような形式とするか検討中ですが、学生生活を送る上で有用なパソコンの使い方について、一つでも多く身につけてもらえるようさまざまな内容を準備していますので、 興味のあるものが見つかったら、ぜひ参加してください。 
-  &lt;a href="https://f3s.riise.hiroshima-u.ac.jp"&gt;https://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
-&lt;/dd&gt;
-&lt;/dl&gt;</t>
-    <rPh sb="88" eb="89">
-      <t>ツギ</t>
-    </rPh>
+&lt;dl&gt;&lt;dt&gt;対面窓口&lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;初期講習会会場（日時場所は下記Webページ内）&lt;/dd&gt;
+&lt;dd&gt;&lt;a href="https://www.hiroshima-u.ac.jp/about/initiatives/jyoho_ka/hikkei_pc"&gt;https://www.hiroshima-u.ac.jp/about/initiatives/jyoho_ka/hikkei_pc&lt;/a&gt;&lt;/dd&gt;
+&lt;dd&gt;（4/5～7 10:00～19:00、平日 10:00～17:00）広島大学生協新入生サポートセンター&lt;/dd&gt;
+&lt;/dd&gt;&lt;dt&gt;Web質問窓口: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
+&lt;/dd&gt;&lt;dt&gt;メール質問窓口: &lt;/dt&gt;
+&lt;dt&gt; &lt;/dt&gt;
+&lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;&lt;/dd&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6980,7 +6960,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/win10+lan.xlsx
+++ b/win10+lan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpsuzuki\Documents\2021_04\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A25A5D-5BAC-40AB-BC9A-D8AF5D7E2D31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0836FDD2-AC8C-47A7-BBBC-3124C09ED775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15468" windowHeight="6396" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -3825,14 +3825,6 @@
     <t>FRESTA-TEXT-2021 Win10</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h3&gt;Widows10編&lt;/h3&gt;
-2021年3月&lt;br&gt;
- 広島大学 情報メディア教育研究センター&lt;br&gt;
- 広島大学 消費生活協同組合 
- </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRESTA-TEXT-2021 Win10 chap.1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4066,6 +4058,14 @@
 &lt;/dd&gt;&lt;dt&gt;メール質問窓口: &lt;/dt&gt;
 &lt;dt&gt; &lt;/dt&gt;
 &lt;dd&gt;&lt;a href="mailto:st-pc@ml.hiroshima-u.ac.jp"&gt;st-pc@ml.hiroshima-u.ac.jp&lt;/a&gt;&lt;/dd&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;Windows10編&lt;/h3&gt;
+2021年3月&lt;br&gt;
+ 広島大学 情報メディア教育研究センター&lt;br&gt;
+ 広島大学 消費生活協同組合 
+ </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4486,7 +4486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4527,7 +4527,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -4578,7 +4578,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4811,7 +4811,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -4836,7 +4836,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="23" spans="1:4" ht="92.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C23" t="s">
         <v>260</v>
@@ -5493,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5557,7 +5557,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -5664,7 +5664,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5688,12 +5688,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="118.8" x14ac:dyDescent="0.2">
@@ -5701,7 +5701,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -6078,7 +6078,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6260,7 +6260,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="264" x14ac:dyDescent="0.2">
@@ -6376,7 +6376,7 @@
         <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
@@ -6534,7 +6534,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -6959,7 +6959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -7024,7 +7024,7 @@
     </row>
     <row r="8" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
